--- a/Quality Failures - Magnus edit.xlsx
+++ b/Quality Failures - Magnus edit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/premnathknarayanan/programming/Amity/HESA_Compliance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3439AD32-29BB-E244-9E74-874920A1612F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA0A9848-1C55-9C4F-A0FF-51599FAC049C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="29400" windowHeight="17280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,15 +35,27 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>tc={0EB34F32-FE00-124A-B833-110536513A9C}</author>
     <author>tc={CCF7E0A6-7FC2-B248-B132-7FBD002B4A5F}</author>
     <author>tc={F45DEF86-4C6E-B747-BD3D-2AAF8ACF884F}</author>
+    <author>tc={4744D5A9-FFE9-AA44-A6C2-8FD21082403A}</author>
     <author>tc={45BF2918-975A-DD4C-80C4-61E3F899208F}</author>
-    <author>tc={DC18E1E9-0013-074B-9651-EBF80A87D9FC}</author>
+    <author>tc={80A692D0-0A00-C943-B2C6-584D749AB08B}</author>
+    <author>tc={150BB4D5-06C2-E143-A88E-A4F6167EFEEB}</author>
     <author>tc={F9D1762D-3782-C54E-BE66-053B69A66B19}</author>
-    <author>tc={FA328773-6731-B646-AA9D-199F4E6004F1}</author>
+    <author>tc={868A8D70-B321-C24A-9A4F-E7B1AA38DC31}</author>
+    <author>tc={AD9FB518-1710-9544-8286-A1DD1543CD28}</author>
   </authors>
   <commentList>
-    <comment ref="A29" authorId="0" shapeId="0" xr:uid="{CCF7E0A6-7FC2-B248-B132-7FBD002B4A5F}">
+    <comment ref="B23" authorId="0" shapeId="0" xr:uid="{0EB34F32-FE00-124A-B833-110536513A9C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    HESA should get back with the code.</t>
+      </text>
+    </comment>
+    <comment ref="A29" authorId="1" shapeId="0" xr:uid="{CCF7E0A6-7FC2-B248-B132-7FBD002B4A5F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -51,7 +63,7 @@
     Added.</t>
       </text>
     </comment>
-    <comment ref="A81" authorId="1" shapeId="0" xr:uid="{F45DEF86-4C6E-B747-BD3D-2AAF8ACF884F}">
+    <comment ref="A81" authorId="2" shapeId="0" xr:uid="{F45DEF86-4C6E-B747-BD3D-2AAF8ACF884F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -59,7 +71,15 @@
     Looks okay with generation.  We see only 118 generated.</t>
       </text>
     </comment>
-    <comment ref="A274" authorId="2" shapeId="0" xr:uid="{45BF2918-975A-DD4C-80C4-61E3F899208F}">
+    <comment ref="B81" authorId="3" shapeId="0" xr:uid="{4744D5A9-FFE9-AA44-A6C2-8FD21082403A}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    ELQ is removed.</t>
+      </text>
+    </comment>
+    <comment ref="A274" authorId="4" shapeId="0" xr:uid="{45BF2918-975A-DD4C-80C4-61E3F899208F}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -67,15 +87,23 @@
     If data exists it pulls.  But note, only when ENGENDDATE is there this will be created.</t>
       </text>
     </comment>
-    <comment ref="A330" authorId="3" shapeId="0" xr:uid="{DC18E1E9-0013-074B-9651-EBF80A87D9FC}">
+    <comment ref="B274" authorId="5" shapeId="0" xr:uid="{80A692D0-0A00-C943-B2C6-584D749AB08B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
-    I don’t see the column in the excel.  To be checked.</t>
+    If data exists it pulls.  But note, only when ENGENDDATE is there this will be created.</t>
       </text>
     </comment>
-    <comment ref="A333" authorId="4" shapeId="0" xr:uid="{F9D1762D-3782-C54E-BE66-053B69A66B19}">
+    <comment ref="B330" authorId="6" shapeId="0" xr:uid="{150BB4D5-06C2-E143-A88E-A4F6167EFEEB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Aligned in the template and excel. Separate sheet.</t>
+      </text>
+    </comment>
+    <comment ref="A333" authorId="7" shapeId="0" xr:uid="{F9D1762D-3782-C54E-BE66-053B69A66B19}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -83,7 +111,15 @@
     condition added when None or Null, do not add into the XML.</t>
       </text>
     </comment>
-    <comment ref="A417" authorId="5" shapeId="0" xr:uid="{FA328773-6731-B646-AA9D-199F4E6004F1}">
+    <comment ref="B333" authorId="8" shapeId="0" xr:uid="{868A8D70-B321-C24A-9A4F-E7B1AA38DC31}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    condition added when None or Null, do not add into the XML.</t>
+      </text>
+    </comment>
+    <comment ref="B417" authorId="9" shapeId="0" xr:uid="{AD9FB518-1710-9544-8286-A1DD1543CD28}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -96,7 +132,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4732" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4737" uniqueCount="417">
   <si>
     <t>Rule Number</t>
   </si>
@@ -1332,6 +1368,21 @@
   </si>
   <si>
     <t>AMITY</t>
+  </si>
+  <si>
+    <t>Magnus to work on it</t>
+  </si>
+  <si>
+    <t>Prem needs clarification from magnus</t>
+  </si>
+  <si>
+    <t>Changes done, to be uploaded and tried.</t>
+  </si>
+  <si>
+    <t>Data Corrected, net upload it should work.</t>
+  </si>
+  <si>
+    <t>Speak to HESA</t>
   </si>
 </sst>
 </file>
@@ -1341,7 +1392,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1369,18 +1420,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
+      <color rgb="FF92D050"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="7" tint="0.39997558519241921"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -1427,17 +1499,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1659,22 +1735,34 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="B23" dT="2023-12-03T15:33:29.35" personId="{7C38E50D-9E2F-1D49-B9AB-AA28431A0526}" id="{0EB34F32-FE00-124A-B833-110536513A9C}">
+    <text>HESA should get back with the code.</text>
+  </threadedComment>
   <threadedComment ref="A29" dT="2023-12-03T11:36:55.06" personId="{7C38E50D-9E2F-1D49-B9AB-AA28431A0526}" id="{CCF7E0A6-7FC2-B248-B132-7FBD002B4A5F}">
     <text>Added.</text>
   </threadedComment>
   <threadedComment ref="A81" dT="2023-12-03T11:36:41.85" personId="{7C38E50D-9E2F-1D49-B9AB-AA28431A0526}" id="{F45DEF86-4C6E-B747-BD3D-2AAF8ACF884F}">
     <text>Looks okay with generation.  We see only 118 generated.</text>
   </threadedComment>
+  <threadedComment ref="B81" dT="2023-12-03T15:35:52.32" personId="{7C38E50D-9E2F-1D49-B9AB-AA28431A0526}" id="{4744D5A9-FFE9-AA44-A6C2-8FD21082403A}">
+    <text>ELQ is removed.</text>
+  </threadedComment>
   <threadedComment ref="A274" dT="2023-12-03T11:42:29.65" personId="{7C38E50D-9E2F-1D49-B9AB-AA28431A0526}" id="{45BF2918-975A-DD4C-80C4-61E3F899208F}">
     <text>If data exists it pulls.  But note, only when ENGENDDATE is there this will be created.</text>
   </threadedComment>
-  <threadedComment ref="A330" dT="2023-12-03T11:44:12.96" personId="{7C38E50D-9E2F-1D49-B9AB-AA28431A0526}" id="{DC18E1E9-0013-074B-9651-EBF80A87D9FC}">
-    <text>I don’t see the column in the excel.  To be checked.</text>
+  <threadedComment ref="B274" dT="2023-12-03T15:37:34.29" personId="{7C38E50D-9E2F-1D49-B9AB-AA28431A0526}" id="{80A692D0-0A00-C943-B2C6-584D749AB08B}">
+    <text>If data exists it pulls.  But note, only when ENGENDDATE is there this will be created.</text>
+  </threadedComment>
+  <threadedComment ref="B330" dT="2023-12-03T15:38:05.07" personId="{7C38E50D-9E2F-1D49-B9AB-AA28431A0526}" id="{150BB4D5-06C2-E143-A88E-A4F6167EFEEB}">
+    <text>Aligned in the template and excel. Separate sheet.</text>
   </threadedComment>
   <threadedComment ref="A333" dT="2023-12-03T11:46:15.01" personId="{7C38E50D-9E2F-1D49-B9AB-AA28431A0526}" id="{F9D1762D-3782-C54E-BE66-053B69A66B19}">
     <text>condition added when None or Null, do not add into the XML.</text>
   </threadedComment>
-  <threadedComment ref="A417" dT="2023-12-03T11:53:04.64" personId="{7C38E50D-9E2F-1D49-B9AB-AA28431A0526}" id="{FA328773-6731-B646-AA9D-199F4E6004F1}">
+  <threadedComment ref="B333" dT="2023-12-03T15:38:23.69" personId="{7C38E50D-9E2F-1D49-B9AB-AA28431A0526}" id="{868A8D70-B321-C24A-9A4F-E7B1AA38DC31}">
+    <text>condition added when None or Null, do not add into the XML.</text>
+  </threadedComment>
+  <threadedComment ref="B417" dT="2023-12-03T15:39:29.09" personId="{7C38E50D-9E2F-1D49-B9AB-AA28431A0526}" id="{AD9FB518-1710-9544-8286-A1DD1543CD28}">
     <text>Only 2 Phd students  I have.</text>
   </threadedComment>
 </ThreadedComments>
@@ -1685,16 +1773,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:EE436"/>
+  <dimension ref="A1:EE441"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A395" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A423" sqref="A423"/>
+    <sheetView tabSelected="1" zoomScale="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A420" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.5" customWidth="1"/>
     <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -2108,7 +2196,7 @@
       <c r="A2" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -2176,7 +2264,7 @@
       <c r="A3" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -2244,7 +2332,7 @@
       <c r="A4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="1" t="s">
@@ -2312,7 +2400,7 @@
       <c r="A5" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="12" t="s">
         <v>107</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -2380,7 +2468,7 @@
       <c r="A6" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="12" t="s">
         <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
@@ -2427,7 +2515,7 @@
       <c r="A7" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="12" t="s">
         <v>118</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2471,10 +2559,10 @@
       </c>
     </row>
     <row r="8" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
@@ -2515,10 +2603,10 @@
       </c>
     </row>
     <row r="9" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
@@ -2559,10 +2647,10 @@
       </c>
     </row>
     <row r="10" spans="1:135" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C10" s="1" t="s">
@@ -2606,7 +2694,7 @@
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="12" t="s">
         <v>135</v>
       </c>
       <c r="C11" s="1" t="s">
@@ -2638,7 +2726,7 @@
       <c r="A12" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="13" t="s">
         <v>139</v>
       </c>
       <c r="C12" s="1" t="s">
@@ -2650,7 +2738,7 @@
       <c r="J12" s="1">
         <v>1</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>43374</v>
       </c>
       <c r="Q12" s="1">
@@ -2665,7 +2753,7 @@
       <c r="T12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="4">
         <v>43374</v>
       </c>
       <c r="V12" s="1">
@@ -2680,7 +2768,7 @@
       <c r="Y12" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BF12" s="5">
+      <c r="BF12" s="4">
         <v>43367</v>
       </c>
     </row>
@@ -2688,7 +2776,7 @@
       <c r="A13" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="13" t="s">
         <v>139</v>
       </c>
       <c r="C13" s="1" t="s">
@@ -2700,7 +2788,7 @@
       <c r="J13" s="1">
         <v>1</v>
       </c>
-      <c r="P13" s="5">
+      <c r="P13" s="4">
         <v>43374</v>
       </c>
       <c r="Q13" s="1">
@@ -2715,7 +2803,7 @@
       <c r="T13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U13" s="5">
+      <c r="U13" s="4">
         <v>43374</v>
       </c>
       <c r="V13" s="1">
@@ -2730,7 +2818,7 @@
       <c r="Y13" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BF13" s="5">
+      <c r="BF13" s="4">
         <v>43367</v>
       </c>
     </row>
@@ -2738,7 +2826,7 @@
       <c r="A14" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="13" t="s">
         <v>139</v>
       </c>
       <c r="C14" s="1" t="s">
@@ -2750,7 +2838,7 @@
       <c r="J14" s="1">
         <v>1</v>
       </c>
-      <c r="P14" s="5">
+      <c r="P14" s="4">
         <v>43374</v>
       </c>
       <c r="Q14" s="1">
@@ -2765,7 +2853,7 @@
       <c r="T14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U14" s="5">
+      <c r="U14" s="4">
         <v>43374</v>
       </c>
       <c r="V14" s="1">
@@ -2780,7 +2868,7 @@
       <c r="Y14" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BF14" s="5">
+      <c r="BF14" s="4">
         <v>43367</v>
       </c>
     </row>
@@ -2788,7 +2876,7 @@
       <c r="A15" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="13" t="s">
         <v>139</v>
       </c>
       <c r="C15" s="1" t="s">
@@ -2800,7 +2888,7 @@
       <c r="J15" s="1">
         <v>1</v>
       </c>
-      <c r="P15" s="5">
+      <c r="P15" s="4">
         <v>43374</v>
       </c>
       <c r="Q15" s="1">
@@ -2815,7 +2903,7 @@
       <c r="T15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U15" s="5">
+      <c r="U15" s="4">
         <v>43374</v>
       </c>
       <c r="V15" s="1">
@@ -2830,7 +2918,7 @@
       <c r="Y15" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BF15" s="5">
+      <c r="BF15" s="4">
         <v>43367</v>
       </c>
     </row>
@@ -2838,7 +2926,7 @@
       <c r="A16" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="12" t="s">
         <v>139</v>
       </c>
       <c r="C16" s="1" t="s">
@@ -2850,7 +2938,7 @@
       <c r="J16" s="1">
         <v>1</v>
       </c>
-      <c r="P16" s="5">
+      <c r="P16" s="4">
         <v>43500</v>
       </c>
       <c r="Q16" s="1">
@@ -2865,7 +2953,7 @@
       <c r="T16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U16" s="5">
+      <c r="U16" s="4">
         <v>43500</v>
       </c>
       <c r="V16" s="1">
@@ -2880,15 +2968,15 @@
       <c r="Y16" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BF16" s="5">
+      <c r="BF16" s="4">
         <v>43136</v>
       </c>
     </row>
     <row r="17" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C17" s="1" t="s">
@@ -2900,7 +2988,7 @@
       <c r="J17" s="1">
         <v>2</v>
       </c>
-      <c r="BF17" s="5">
+      <c r="BF17" s="4">
         <v>44627</v>
       </c>
       <c r="CH17" s="1">
@@ -2926,7 +3014,7 @@
       <c r="A18" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="6" t="s">
         <v>143</v>
       </c>
       <c r="C18" s="1" t="s">
@@ -2938,7 +3026,7 @@
       <c r="J18" s="1">
         <v>1</v>
       </c>
-      <c r="BF18" s="5">
+      <c r="BF18" s="4">
         <v>42772</v>
       </c>
       <c r="CH18" s="1">
@@ -2964,7 +3052,7 @@
       <c r="A19" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C19" s="1" t="s">
@@ -3000,7 +3088,7 @@
       <c r="Y19" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AI19" s="5">
+      <c r="AI19" s="4">
         <v>35582</v>
       </c>
       <c r="CN19" s="1" t="s">
@@ -3020,7 +3108,7 @@
       <c r="A20" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C20" s="1" t="s">
@@ -3056,7 +3144,7 @@
       <c r="Y20" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AI20" s="5">
+      <c r="AI20" s="4">
         <v>35582</v>
       </c>
       <c r="CN20" s="1" t="s">
@@ -3076,7 +3164,7 @@
       <c r="A21" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C21" s="1" t="s">
@@ -3112,7 +3200,7 @@
       <c r="Y21" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AI21" s="5">
+      <c r="AI21" s="4">
         <v>32190</v>
       </c>
       <c r="CN21" s="1" t="s">
@@ -3132,7 +3220,7 @@
       <c r="A22" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="6" t="s">
         <v>147</v>
       </c>
       <c r="C22" s="1" t="s">
@@ -3168,7 +3256,7 @@
       <c r="Y22" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AI22" s="5">
+      <c r="AI22" s="4">
         <v>32190</v>
       </c>
       <c r="CN22" s="1" t="s">
@@ -3188,7 +3276,7 @@
       <c r="A23" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="10" t="s">
         <v>155</v>
       </c>
       <c r="C23" s="1" t="s">
@@ -3200,7 +3288,7 @@
       <c r="J23" s="1">
         <v>2</v>
       </c>
-      <c r="P23" s="5">
+      <c r="P23" s="4">
         <v>44627</v>
       </c>
       <c r="Q23" s="1">
@@ -3215,7 +3303,7 @@
       <c r="T23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U23" s="5">
+      <c r="U23" s="4">
         <v>44627</v>
       </c>
       <c r="V23" s="1">
@@ -3230,7 +3318,7 @@
       <c r="Y23" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AI23" s="5">
+      <c r="AI23" s="4">
         <v>35582</v>
       </c>
       <c r="CN23" s="1" t="s">
@@ -3244,7 +3332,7 @@
       <c r="A24" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="10" t="s">
         <v>155</v>
       </c>
       <c r="C24" s="1" t="s">
@@ -3256,7 +3344,7 @@
       <c r="J24" s="1">
         <v>2</v>
       </c>
-      <c r="P24" s="5">
+      <c r="P24" s="4">
         <v>44627</v>
       </c>
       <c r="Q24" s="1" t="s">
@@ -3271,7 +3359,7 @@
       <c r="T24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U24" s="5">
+      <c r="U24" s="4">
         <v>44627</v>
       </c>
       <c r="V24" s="1" t="s">
@@ -3286,7 +3374,7 @@
       <c r="Y24" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AI24" s="5">
+      <c r="AI24" s="4">
         <v>35582</v>
       </c>
       <c r="CN24" s="1" t="s">
@@ -3300,7 +3388,7 @@
       <c r="A25" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="10" t="s">
         <v>155</v>
       </c>
       <c r="C25" s="1" t="s">
@@ -3312,7 +3400,7 @@
       <c r="J25" s="1">
         <v>2</v>
       </c>
-      <c r="P25" s="5">
+      <c r="P25" s="4">
         <v>44627</v>
       </c>
       <c r="Q25" s="1">
@@ -3327,7 +3415,7 @@
       <c r="T25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U25" s="5">
+      <c r="U25" s="4">
         <v>44627</v>
       </c>
       <c r="V25" s="1">
@@ -3342,7 +3430,7 @@
       <c r="Y25" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AI25" s="5">
+      <c r="AI25" s="4">
         <v>32190</v>
       </c>
       <c r="CN25" s="1" t="s">
@@ -3356,7 +3444,7 @@
       <c r="A26" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="10" t="s">
         <v>155</v>
       </c>
       <c r="C26" s="1" t="s">
@@ -3368,7 +3456,7 @@
       <c r="J26" s="1">
         <v>2</v>
       </c>
-      <c r="P26" s="5">
+      <c r="P26" s="4">
         <v>44627</v>
       </c>
       <c r="Q26" s="1" t="s">
@@ -3383,7 +3471,7 @@
       <c r="T26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U26" s="5">
+      <c r="U26" s="4">
         <v>44627</v>
       </c>
       <c r="V26" s="1" t="s">
@@ -3398,7 +3486,7 @@
       <c r="Y26" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AI26" s="5">
+      <c r="AI26" s="4">
         <v>32190</v>
       </c>
       <c r="CN26" s="1" t="s">
@@ -3412,7 +3500,7 @@
       <c r="A27" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="10" t="s">
         <v>158</v>
       </c>
       <c r="C27" s="1" t="s">
@@ -3424,7 +3512,7 @@
       <c r="J27" s="1">
         <v>1</v>
       </c>
-      <c r="P27" s="5">
+      <c r="P27" s="4">
         <v>42772</v>
       </c>
       <c r="Q27" s="1">
@@ -3439,7 +3527,7 @@
       <c r="T27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U27" s="5">
+      <c r="U27" s="4">
         <v>42772</v>
       </c>
       <c r="V27" s="1">
@@ -3454,18 +3542,18 @@
       <c r="Y27" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AI27" s="5">
+      <c r="AI27" s="4">
         <v>19829</v>
       </c>
       <c r="CQ27" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="28" spans="1:95" x14ac:dyDescent="0.2">
-      <c r="A28" s="6" t="s">
+    <row r="28" spans="1:95" ht="15" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="10" t="s">
         <v>158</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -3477,7 +3565,7 @@
       <c r="J28" s="1">
         <v>2</v>
       </c>
-      <c r="P28" s="5">
+      <c r="P28" s="4">
         <v>44627</v>
       </c>
       <c r="Q28" s="1" t="s">
@@ -3492,7 +3580,7 @@
       <c r="T28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U28" s="5">
+      <c r="U28" s="4">
         <v>44627</v>
       </c>
       <c r="V28" s="1" t="s">
@@ -3507,7 +3595,7 @@
       <c r="Y28" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AI28" s="5">
+      <c r="AI28" s="4">
         <v>28846</v>
       </c>
       <c r="CQ28" s="1" t="s">
@@ -3515,10 +3603,10 @@
       </c>
     </row>
     <row r="29" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="8" t="s">
+      <c r="A29" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C29" s="1" t="s">
@@ -3557,7 +3645,7 @@
       <c r="BJ29" s="1">
         <v>0</v>
       </c>
-      <c r="BK29" s="5">
+      <c r="BK29" s="4">
         <v>45086</v>
       </c>
       <c r="BL29" s="1">
@@ -3565,10 +3653,10 @@
       </c>
     </row>
     <row r="30" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C30" s="1" t="s">
@@ -3607,7 +3695,7 @@
       <c r="BJ30" s="1">
         <v>0</v>
       </c>
-      <c r="BK30" s="5">
+      <c r="BK30" s="4">
         <v>45086</v>
       </c>
       <c r="BL30" s="1">
@@ -3615,10 +3703,10 @@
       </c>
     </row>
     <row r="31" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C31" s="1" t="s">
@@ -3657,7 +3745,7 @@
       <c r="BJ31" s="1">
         <v>0</v>
       </c>
-      <c r="BK31" s="5">
+      <c r="BK31" s="4">
         <v>45086</v>
       </c>
       <c r="BL31" s="1">
@@ -3665,10 +3753,10 @@
       </c>
     </row>
     <row r="32" spans="1:95" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C32" s="1" t="s">
@@ -3707,7 +3795,7 @@
       <c r="BJ32" s="1">
         <v>0</v>
       </c>
-      <c r="BK32" s="5">
+      <c r="BK32" s="4">
         <v>44722</v>
       </c>
       <c r="BL32" s="1">
@@ -3715,10 +3803,10 @@
       </c>
     </row>
     <row r="33" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="8" t="s">
+      <c r="A33" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C33" s="1" t="s">
@@ -3757,7 +3845,7 @@
       <c r="BJ33" s="1">
         <v>0</v>
       </c>
-      <c r="BK33" s="5">
+      <c r="BK33" s="4">
         <v>44589</v>
       </c>
       <c r="BL33" s="1">
@@ -3765,10 +3853,10 @@
       </c>
     </row>
     <row r="34" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="8" t="s">
+      <c r="A34" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C34" s="1" t="s">
@@ -3807,7 +3895,7 @@
       <c r="BJ34" s="1">
         <v>0</v>
       </c>
-      <c r="BK34" s="5">
+      <c r="BK34" s="4">
         <v>45086</v>
       </c>
       <c r="BL34" s="1">
@@ -3815,10 +3903,10 @@
       </c>
     </row>
     <row r="35" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="8" t="s">
+      <c r="A35" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -3857,7 +3945,7 @@
       <c r="BJ35" s="1">
         <v>0</v>
       </c>
-      <c r="BK35" s="5">
+      <c r="BK35" s="4">
         <v>44953</v>
       </c>
       <c r="BL35" s="1">
@@ -3865,10 +3953,10 @@
       </c>
     </row>
     <row r="36" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="8" t="s">
+      <c r="A36" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C36" s="1" t="s">
@@ -3907,7 +3995,7 @@
       <c r="BJ36" s="1">
         <v>0</v>
       </c>
-      <c r="BK36" s="5">
+      <c r="BK36" s="4">
         <v>45086</v>
       </c>
       <c r="BL36" s="1">
@@ -3915,10 +4003,10 @@
       </c>
     </row>
     <row r="37" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="8" t="s">
+      <c r="A37" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C37" s="1" t="s">
@@ -3957,7 +4045,7 @@
       <c r="BJ37" s="1">
         <v>0</v>
       </c>
-      <c r="BK37" s="5">
+      <c r="BK37" s="4">
         <v>44953</v>
       </c>
       <c r="BL37" s="1">
@@ -3965,10 +4053,10 @@
       </c>
     </row>
     <row r="38" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="8" t="s">
+      <c r="A38" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B38" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C38" s="1" t="s">
@@ -4007,7 +4095,7 @@
       <c r="BJ38" s="1">
         <v>0</v>
       </c>
-      <c r="BK38" s="5">
+      <c r="BK38" s="4">
         <v>44722</v>
       </c>
       <c r="BL38" s="1">
@@ -4015,10 +4103,10 @@
       </c>
     </row>
     <row r="39" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="8" t="s">
+      <c r="A39" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B39" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C39" s="1" t="s">
@@ -4057,7 +4145,7 @@
       <c r="BJ39" s="1">
         <v>0</v>
       </c>
-      <c r="BK39" s="5">
+      <c r="BK39" s="4">
         <v>44722</v>
       </c>
       <c r="BL39" s="1">
@@ -4065,10 +4153,10 @@
       </c>
     </row>
     <row r="40" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="8" t="s">
+      <c r="A40" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B40" s="3" t="s">
+      <c r="B40" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C40" s="1" t="s">
@@ -4107,7 +4195,7 @@
       <c r="BJ40" s="1">
         <v>0</v>
       </c>
-      <c r="BK40" s="5">
+      <c r="BK40" s="4">
         <v>44953</v>
       </c>
       <c r="BL40" s="1">
@@ -4115,10 +4203,10 @@
       </c>
     </row>
     <row r="41" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B41" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -4157,7 +4245,7 @@
       <c r="BJ41" s="1">
         <v>0</v>
       </c>
-      <c r="BK41" s="5">
+      <c r="BK41" s="4">
         <v>45086</v>
       </c>
       <c r="BL41" s="1">
@@ -4165,10 +4253,10 @@
       </c>
     </row>
     <row r="42" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B42" s="3" t="s">
+      <c r="B42" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C42" s="1" t="s">
@@ -4207,7 +4295,7 @@
       <c r="BJ42" s="1">
         <v>0</v>
       </c>
-      <c r="BK42" s="5">
+      <c r="BK42" s="4">
         <v>44953</v>
       </c>
       <c r="BL42" s="1">
@@ -4215,10 +4303,10 @@
       </c>
     </row>
     <row r="43" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B43" s="3" t="s">
+      <c r="B43" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C43" s="1" t="s">
@@ -4257,7 +4345,7 @@
       <c r="BJ43" s="1">
         <v>0</v>
       </c>
-      <c r="BK43" s="5">
+      <c r="BK43" s="4">
         <v>45086</v>
       </c>
       <c r="BL43" s="1">
@@ -4265,10 +4353,10 @@
       </c>
     </row>
     <row r="44" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C44" s="1" t="s">
@@ -4307,7 +4395,7 @@
       <c r="BJ44" s="1">
         <v>0</v>
       </c>
-      <c r="BK44" s="5">
+      <c r="BK44" s="4">
         <v>44953</v>
       </c>
       <c r="BL44" s="1">
@@ -4315,10 +4403,10 @@
       </c>
     </row>
     <row r="45" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C45" s="1" t="s">
@@ -4357,7 +4445,7 @@
       <c r="BJ45" s="1">
         <v>0</v>
       </c>
-      <c r="BK45" s="5">
+      <c r="BK45" s="4">
         <v>45086</v>
       </c>
       <c r="BL45" s="1">
@@ -4365,10 +4453,10 @@
       </c>
     </row>
     <row r="46" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C46" s="1" t="s">
@@ -4407,7 +4495,7 @@
       <c r="BJ46" s="1">
         <v>0</v>
       </c>
-      <c r="BK46" s="5">
+      <c r="BK46" s="4">
         <v>45086</v>
       </c>
       <c r="BL46" s="1">
@@ -4415,10 +4503,10 @@
       </c>
     </row>
     <row r="47" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B47" s="3" t="s">
+      <c r="B47" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C47" s="1" t="s">
@@ -4457,7 +4545,7 @@
       <c r="BJ47" s="1">
         <v>0</v>
       </c>
-      <c r="BK47" s="5">
+      <c r="BK47" s="4">
         <v>45086</v>
       </c>
       <c r="BL47" s="1">
@@ -4465,10 +4553,10 @@
       </c>
     </row>
     <row r="48" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B48" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C48" s="1" t="s">
@@ -4507,7 +4595,7 @@
       <c r="BJ48" s="1">
         <v>0</v>
       </c>
-      <c r="BK48" s="5">
+      <c r="BK48" s="4">
         <v>45086</v>
       </c>
       <c r="BL48" s="1">
@@ -4515,10 +4603,10 @@
       </c>
     </row>
     <row r="49" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B49" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -4557,7 +4645,7 @@
       <c r="BJ49" s="1">
         <v>0</v>
       </c>
-      <c r="BK49" s="5">
+      <c r="BK49" s="4">
         <v>44953</v>
       </c>
       <c r="BL49" s="1">
@@ -4565,10 +4653,10 @@
       </c>
     </row>
     <row r="50" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B50" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C50" s="1" t="s">
@@ -4607,7 +4695,7 @@
       <c r="BJ50" s="1">
         <v>0</v>
       </c>
-      <c r="BK50" s="5">
+      <c r="BK50" s="4">
         <v>45086</v>
       </c>
       <c r="BL50" s="1">
@@ -4615,10 +4703,10 @@
       </c>
     </row>
     <row r="51" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B51" s="3" t="s">
+      <c r="B51" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C51" s="1" t="s">
@@ -4657,7 +4745,7 @@
       <c r="BJ51" s="1">
         <v>0</v>
       </c>
-      <c r="BK51" s="5">
+      <c r="BK51" s="4">
         <v>45086</v>
       </c>
       <c r="BL51" s="1">
@@ -4665,10 +4753,10 @@
       </c>
     </row>
     <row r="52" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="8" t="s">
+      <c r="A52" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B52" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C52" s="1" t="s">
@@ -4707,7 +4795,7 @@
       <c r="BJ52" s="1">
         <v>0</v>
       </c>
-      <c r="BK52" s="5">
+      <c r="BK52" s="4">
         <v>44722</v>
       </c>
       <c r="BL52" s="1">
@@ -4715,10 +4803,10 @@
       </c>
     </row>
     <row r="53" spans="1:64" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="8" t="s">
+      <c r="A53" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -4757,7 +4845,7 @@
       <c r="BJ53" s="1">
         <v>0</v>
       </c>
-      <c r="BK53" s="5">
+      <c r="BK53" s="4">
         <v>44722</v>
       </c>
       <c r="BL53" s="1">
@@ -4765,10 +4853,10 @@
       </c>
     </row>
     <row r="54" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A54" s="8" t="s">
+      <c r="A54" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B54" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C54" s="1" t="s">
@@ -4807,7 +4895,7 @@
       <c r="BJ54" s="1">
         <v>0</v>
       </c>
-      <c r="BK54" s="5">
+      <c r="BK54" s="4">
         <v>44589</v>
       </c>
       <c r="BL54" s="1">
@@ -4815,10 +4903,10 @@
       </c>
     </row>
     <row r="55" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A55" s="8" t="s">
+      <c r="A55" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B55" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C55" s="1" t="s">
@@ -4857,7 +4945,7 @@
       <c r="BJ55" s="1">
         <v>0</v>
       </c>
-      <c r="BK55" s="5">
+      <c r="BK55" s="4">
         <v>44953</v>
       </c>
       <c r="BL55" s="1">
@@ -4865,10 +4953,10 @@
       </c>
     </row>
     <row r="56" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A56" s="8" t="s">
+      <c r="A56" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B56" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C56" s="1" t="s">
@@ -4907,7 +4995,7 @@
       <c r="BJ56" s="1">
         <v>0</v>
       </c>
-      <c r="BK56" s="5">
+      <c r="BK56" s="4">
         <v>45086</v>
       </c>
       <c r="BL56" s="1">
@@ -4915,10 +5003,10 @@
       </c>
     </row>
     <row r="57" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A57" s="8" t="s">
+      <c r="A57" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C57" s="1" t="s">
@@ -4957,7 +5045,7 @@
       <c r="BJ57" s="1">
         <v>0</v>
       </c>
-      <c r="BK57" s="5">
+      <c r="BK57" s="4">
         <v>44722</v>
       </c>
       <c r="BL57" s="1">
@@ -4965,10 +5053,10 @@
       </c>
     </row>
     <row r="58" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B58" s="3" t="s">
+      <c r="B58" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C58" s="1" t="s">
@@ -5007,7 +5095,7 @@
       <c r="BJ58" s="1">
         <v>0</v>
       </c>
-      <c r="BK58" s="5">
+      <c r="BK58" s="4">
         <v>45086</v>
       </c>
       <c r="BL58" s="1">
@@ -5015,10 +5103,10 @@
       </c>
     </row>
     <row r="59" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B59" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C59" s="1" t="s">
@@ -5057,7 +5145,7 @@
       <c r="BJ59" s="1">
         <v>0</v>
       </c>
-      <c r="BK59" s="5">
+      <c r="BK59" s="4">
         <v>44722</v>
       </c>
       <c r="BL59" s="1">
@@ -5065,10 +5153,10 @@
       </c>
     </row>
     <row r="60" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A60" s="8" t="s">
+      <c r="A60" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="B60" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C60" s="1" t="s">
@@ -5107,7 +5195,7 @@
       <c r="BJ60" s="1">
         <v>0</v>
       </c>
-      <c r="BK60" s="5">
+      <c r="BK60" s="4">
         <v>44806</v>
       </c>
       <c r="BL60" s="1">
@@ -5115,10 +5203,10 @@
       </c>
     </row>
     <row r="61" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A61" s="8" t="s">
+      <c r="A61" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="B61" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C61" s="1" t="s">
@@ -5157,7 +5245,7 @@
       <c r="BJ61" s="1">
         <v>0</v>
       </c>
-      <c r="BK61" s="5">
+      <c r="BK61" s="4">
         <v>44953</v>
       </c>
       <c r="BL61" s="1">
@@ -5165,10 +5253,10 @@
       </c>
     </row>
     <row r="62" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B62" s="3" t="s">
+      <c r="B62" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C62" s="1" t="s">
@@ -5207,7 +5295,7 @@
       <c r="BJ62" s="1">
         <v>0</v>
       </c>
-      <c r="BK62" s="5">
+      <c r="BK62" s="4">
         <v>45086</v>
       </c>
       <c r="BL62" s="1">
@@ -5215,10 +5303,10 @@
       </c>
     </row>
     <row r="63" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A63" s="8" t="s">
+      <c r="A63" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B63" s="3" t="s">
+      <c r="B63" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C63" s="1" t="s">
@@ -5257,7 +5345,7 @@
       <c r="BJ63" s="1">
         <v>0</v>
       </c>
-      <c r="BK63" s="5">
+      <c r="BK63" s="4">
         <v>44722</v>
       </c>
       <c r="BL63" s="1">
@@ -5265,10 +5353,10 @@
       </c>
     </row>
     <row r="64" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A64" s="8" t="s">
+      <c r="A64" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B64" s="3" t="s">
+      <c r="B64" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C64" s="1" t="s">
@@ -5307,7 +5395,7 @@
       <c r="BJ64" s="1">
         <v>0</v>
       </c>
-      <c r="BK64" s="5">
+      <c r="BK64" s="4">
         <v>44722</v>
       </c>
       <c r="BL64" s="1">
@@ -5315,10 +5403,10 @@
       </c>
     </row>
     <row r="65" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A65" s="8" t="s">
+      <c r="A65" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B65" s="3" t="s">
+      <c r="B65" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C65" s="1" t="s">
@@ -5357,7 +5445,7 @@
       <c r="BJ65" s="1">
         <v>0</v>
       </c>
-      <c r="BK65" s="5">
+      <c r="BK65" s="4">
         <v>44953</v>
       </c>
       <c r="BL65" s="1">
@@ -5365,10 +5453,10 @@
       </c>
     </row>
     <row r="66" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B66" s="3" t="s">
+      <c r="B66" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C66" s="1" t="s">
@@ -5407,7 +5495,7 @@
       <c r="BJ66" s="1">
         <v>0</v>
       </c>
-      <c r="BK66" s="5">
+      <c r="BK66" s="4">
         <v>45086</v>
       </c>
       <c r="BL66" s="1">
@@ -5415,10 +5503,10 @@
       </c>
     </row>
     <row r="67" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A67" s="8" t="s">
+      <c r="A67" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="B67" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C67" s="1" t="s">
@@ -5457,7 +5545,7 @@
       <c r="BJ67" s="1">
         <v>0</v>
       </c>
-      <c r="BK67" s="5">
+      <c r="BK67" s="4">
         <v>44722</v>
       </c>
       <c r="BL67" s="1">
@@ -5465,10 +5553,10 @@
       </c>
     </row>
     <row r="68" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A68" s="8" t="s">
+      <c r="A68" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B68" s="3" t="s">
+      <c r="B68" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C68" s="1" t="s">
@@ -5507,7 +5595,7 @@
       <c r="BJ68" s="1">
         <v>0</v>
       </c>
-      <c r="BK68" s="5">
+      <c r="BK68" s="4">
         <v>44722</v>
       </c>
       <c r="BL68" s="1">
@@ -5515,10 +5603,10 @@
       </c>
     </row>
     <row r="69" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A69" s="8" t="s">
+      <c r="A69" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B69" s="3" t="s">
+      <c r="B69" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C69" s="1" t="s">
@@ -5557,7 +5645,7 @@
       <c r="BJ69" s="1">
         <v>0</v>
       </c>
-      <c r="BK69" s="5">
+      <c r="BK69" s="4">
         <v>45086</v>
       </c>
       <c r="BL69" s="1">
@@ -5565,10 +5653,10 @@
       </c>
     </row>
     <row r="70" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="B70" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C70" s="1" t="s">
@@ -5607,7 +5695,7 @@
       <c r="BJ70" s="1">
         <v>0</v>
       </c>
-      <c r="BK70" s="5">
+      <c r="BK70" s="4">
         <v>45086</v>
       </c>
       <c r="BL70" s="1">
@@ -5615,10 +5703,10 @@
       </c>
     </row>
     <row r="71" spans="1:64" ht="13" x14ac:dyDescent="0.15">
-      <c r="A71" s="8" t="s">
+      <c r="A71" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B71" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C71" s="1" t="s">
@@ -5657,7 +5745,7 @@
       <c r="BJ71" s="1">
         <v>0</v>
       </c>
-      <c r="BK71" s="5">
+      <c r="BK71" s="4">
         <v>44953</v>
       </c>
       <c r="BL71" s="1">
@@ -5668,7 +5756,7 @@
       <c r="A72" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="B72" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C72" s="1" t="s">
@@ -5680,7 +5768,7 @@
       <c r="J72" s="1">
         <v>1</v>
       </c>
-      <c r="P72" s="5">
+      <c r="P72" s="4">
         <v>44235</v>
       </c>
       <c r="Q72" s="1">
@@ -5695,7 +5783,7 @@
       <c r="T72" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U72" s="5">
+      <c r="U72" s="4">
         <v>44235</v>
       </c>
       <c r="V72" s="1">
@@ -5715,7 +5803,7 @@
       <c r="A73" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B73" s="4" t="s">
+      <c r="B73" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C73" s="1" t="s">
@@ -5727,7 +5815,7 @@
       <c r="J73" s="1">
         <v>1</v>
       </c>
-      <c r="P73" s="5">
+      <c r="P73" s="4">
         <v>43500</v>
       </c>
       <c r="Q73" s="1">
@@ -5742,7 +5830,7 @@
       <c r="T73" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U73" s="5">
+      <c r="U73" s="4">
         <v>43500</v>
       </c>
       <c r="V73" s="1">
@@ -5762,7 +5850,7 @@
       <c r="A74" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B74" s="4" t="s">
+      <c r="B74" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C74" s="1" t="s">
@@ -5774,7 +5862,7 @@
       <c r="J74" s="1">
         <v>1</v>
       </c>
-      <c r="P74" s="5">
+      <c r="P74" s="4">
         <v>44102</v>
       </c>
       <c r="Q74" s="1">
@@ -5789,7 +5877,7 @@
       <c r="T74" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U74" s="5">
+      <c r="U74" s="4">
         <v>44102</v>
       </c>
       <c r="V74" s="1">
@@ -5809,7 +5897,7 @@
       <c r="A75" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C75" s="1" t="s">
@@ -5821,7 +5909,7 @@
       <c r="J75" s="1">
         <v>1</v>
       </c>
-      <c r="P75" s="5">
+      <c r="P75" s="4">
         <v>44235</v>
       </c>
       <c r="Q75" s="1">
@@ -5836,7 +5924,7 @@
       <c r="T75" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U75" s="5">
+      <c r="U75" s="4">
         <v>44235</v>
       </c>
       <c r="V75" s="1">
@@ -5856,7 +5944,7 @@
       <c r="A76" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="B76" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C76" s="1" t="s">
@@ -5868,7 +5956,7 @@
       <c r="J76" s="1">
         <v>1</v>
       </c>
-      <c r="P76" s="5">
+      <c r="P76" s="4">
         <v>44235</v>
       </c>
       <c r="Q76" s="1">
@@ -5883,7 +5971,7 @@
       <c r="T76" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U76" s="5">
+      <c r="U76" s="4">
         <v>44235</v>
       </c>
       <c r="V76" s="1">
@@ -5903,7 +5991,7 @@
       <c r="A77" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="B77" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C77" s="1" t="s">
@@ -5915,7 +6003,7 @@
       <c r="J77" s="1">
         <v>1</v>
       </c>
-      <c r="P77" s="5">
+      <c r="P77" s="4">
         <v>44466</v>
       </c>
       <c r="Q77" s="1">
@@ -5930,7 +6018,7 @@
       <c r="T77" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U77" s="5">
+      <c r="U77" s="4">
         <v>44466</v>
       </c>
       <c r="V77" s="1">
@@ -5950,7 +6038,7 @@
       <c r="A78" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="B78" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C78" s="1" t="s">
@@ -5962,7 +6050,7 @@
       <c r="J78" s="1">
         <v>1</v>
       </c>
-      <c r="P78" s="5">
+      <c r="P78" s="4">
         <v>44235</v>
       </c>
       <c r="Q78" s="1">
@@ -5977,7 +6065,7 @@
       <c r="T78" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U78" s="5">
+      <c r="U78" s="4">
         <v>44235</v>
       </c>
       <c r="V78" s="1">
@@ -5997,7 +6085,7 @@
       <c r="A79" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C79" s="1" t="s">
@@ -6009,7 +6097,7 @@
       <c r="J79" s="1">
         <v>1</v>
       </c>
-      <c r="P79" s="5">
+      <c r="P79" s="4">
         <v>43871</v>
       </c>
       <c r="Q79" s="1">
@@ -6024,7 +6112,7 @@
       <c r="T79" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U79" s="5">
+      <c r="U79" s="4">
         <v>43871</v>
       </c>
       <c r="V79" s="1">
@@ -6044,7 +6132,7 @@
       <c r="A80" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B80" s="4" t="s">
+      <c r="B80" s="3" t="s">
         <v>166</v>
       </c>
       <c r="C80" s="1" t="s">
@@ -6056,7 +6144,7 @@
       <c r="J80" s="1">
         <v>1</v>
       </c>
-      <c r="P80" s="5">
+      <c r="P80" s="4">
         <v>43871</v>
       </c>
       <c r="Q80" s="1">
@@ -6071,7 +6159,7 @@
       <c r="T80" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U80" s="5">
+      <c r="U80" s="4">
         <v>43871</v>
       </c>
       <c r="V80" s="1">
@@ -6088,10 +6176,10 @@
       </c>
     </row>
     <row r="81" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A81" s="8" t="s">
+      <c r="A81" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="B81" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C81" s="1" t="s">
@@ -6109,7 +6197,7 @@
       <c r="K81" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P81" s="5">
+      <c r="P81" s="4">
         <v>44872</v>
       </c>
       <c r="Q81" s="1" t="s">
@@ -6124,7 +6212,7 @@
       <c r="T81" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U81" s="5">
+      <c r="U81" s="4">
         <v>44872</v>
       </c>
       <c r="V81" s="1" t="s">
@@ -6174,10 +6262,10 @@
       </c>
     </row>
     <row r="82" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B82" s="3" t="s">
+      <c r="B82" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C82" s="1" t="s">
@@ -6195,7 +6283,7 @@
       <c r="K82" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P82" s="5">
+      <c r="P82" s="4">
         <v>44830</v>
       </c>
       <c r="Q82" s="1" t="s">
@@ -6210,7 +6298,7 @@
       <c r="T82" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U82" s="5">
+      <c r="U82" s="4">
         <v>44830</v>
       </c>
       <c r="V82" s="1" t="s">
@@ -6260,10 +6348,10 @@
       </c>
     </row>
     <row r="83" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A83" s="8" t="s">
+      <c r="A83" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B83" s="3" t="s">
+      <c r="B83" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C83" s="1" t="s">
@@ -6281,7 +6369,7 @@
       <c r="K83" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P83" s="5">
+      <c r="P83" s="4">
         <v>44872</v>
       </c>
       <c r="Q83" s="1" t="s">
@@ -6296,7 +6384,7 @@
       <c r="T83" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U83" s="5">
+      <c r="U83" s="4">
         <v>44872</v>
       </c>
       <c r="V83" s="1" t="s">
@@ -6346,10 +6434,10 @@
       </c>
     </row>
     <row r="84" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B84" s="3" t="s">
+      <c r="B84" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C84" s="1" t="s">
@@ -6367,7 +6455,7 @@
       <c r="K84" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P84" s="5">
+      <c r="P84" s="4">
         <v>44963</v>
       </c>
       <c r="Q84" s="1" t="s">
@@ -6382,7 +6470,7 @@
       <c r="T84" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U84" s="5">
+      <c r="U84" s="4">
         <v>44963</v>
       </c>
       <c r="V84" s="1" t="s">
@@ -6432,10 +6520,10 @@
       </c>
     </row>
     <row r="85" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A85" s="8" t="s">
+      <c r="A85" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B85" s="3" t="s">
+      <c r="B85" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -6453,7 +6541,7 @@
       <c r="K85" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P85" s="5">
+      <c r="P85" s="4">
         <v>44963</v>
       </c>
       <c r="Q85" s="1" t="s">
@@ -6468,7 +6556,7 @@
       <c r="T85" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U85" s="5">
+      <c r="U85" s="4">
         <v>44963</v>
       </c>
       <c r="V85" s="1" t="s">
@@ -6518,10 +6606,10 @@
       </c>
     </row>
     <row r="86" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B86" s="3" t="s">
+      <c r="B86" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C86" s="1" t="s">
@@ -6539,7 +6627,7 @@
       <c r="K86" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P86" s="5">
+      <c r="P86" s="4">
         <v>44830</v>
       </c>
       <c r="Q86" s="1" t="s">
@@ -6554,7 +6642,7 @@
       <c r="T86" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U86" s="5">
+      <c r="U86" s="4">
         <v>44830</v>
       </c>
       <c r="V86" s="1" t="s">
@@ -6604,10 +6692,10 @@
       </c>
     </row>
     <row r="87" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A87" s="8" t="s">
+      <c r="A87" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B87" s="3" t="s">
+      <c r="B87" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C87" s="1" t="s">
@@ -6625,7 +6713,7 @@
       <c r="K87" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P87" s="5">
+      <c r="P87" s="4">
         <v>44830</v>
       </c>
       <c r="Q87" s="1" t="s">
@@ -6640,7 +6728,7 @@
       <c r="T87" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U87" s="5">
+      <c r="U87" s="4">
         <v>44830</v>
       </c>
       <c r="V87" s="1" t="s">
@@ -6690,10 +6778,10 @@
       </c>
     </row>
     <row r="88" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A88" s="8" t="s">
+      <c r="A88" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B88" s="3" t="s">
+      <c r="B88" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C88" s="1" t="s">
@@ -6711,7 +6799,7 @@
       <c r="K88" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P88" s="5">
+      <c r="P88" s="4">
         <v>44830</v>
       </c>
       <c r="Q88" s="1" t="s">
@@ -6726,7 +6814,7 @@
       <c r="T88" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U88" s="5">
+      <c r="U88" s="4">
         <v>44830</v>
       </c>
       <c r="V88" s="1" t="s">
@@ -6776,10 +6864,10 @@
       </c>
     </row>
     <row r="89" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A89" s="8" t="s">
+      <c r="A89" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B89" s="3" t="s">
+      <c r="B89" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C89" s="1" t="s">
@@ -6797,7 +6885,7 @@
       <c r="K89" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P89" s="5">
+      <c r="P89" s="4">
         <v>44963</v>
       </c>
       <c r="Q89" s="1" t="s">
@@ -6812,7 +6900,7 @@
       <c r="T89" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U89" s="5">
+      <c r="U89" s="4">
         <v>44963</v>
       </c>
       <c r="V89" s="1" t="s">
@@ -6862,10 +6950,10 @@
       </c>
     </row>
     <row r="90" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B90" s="3" t="s">
+      <c r="B90" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C90" s="1" t="s">
@@ -6883,7 +6971,7 @@
       <c r="K90" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P90" s="5">
+      <c r="P90" s="4">
         <v>44830</v>
       </c>
       <c r="Q90" s="1" t="s">
@@ -6898,7 +6986,7 @@
       <c r="T90" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U90" s="5">
+      <c r="U90" s="4">
         <v>44830</v>
       </c>
       <c r="V90" s="1" t="s">
@@ -6948,10 +7036,10 @@
       </c>
     </row>
     <row r="91" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A91" s="8" t="s">
+      <c r="A91" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B91" s="3" t="s">
+      <c r="B91" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C91" s="1" t="s">
@@ -6969,7 +7057,7 @@
       <c r="K91" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P91" s="5">
+      <c r="P91" s="4">
         <v>44963</v>
       </c>
       <c r="Q91" s="1" t="s">
@@ -6984,7 +7072,7 @@
       <c r="T91" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U91" s="5">
+      <c r="U91" s="4">
         <v>44963</v>
       </c>
       <c r="V91" s="1" t="s">
@@ -7034,10 +7122,10 @@
       </c>
     </row>
     <row r="92" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A92" s="8" t="s">
+      <c r="A92" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B92" s="3" t="s">
+      <c r="B92" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C92" s="1" t="s">
@@ -7055,7 +7143,7 @@
       <c r="K92" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P92" s="5">
+      <c r="P92" s="4">
         <v>44963</v>
       </c>
       <c r="Q92" s="1" t="s">
@@ -7070,7 +7158,7 @@
       <c r="T92" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U92" s="5">
+      <c r="U92" s="4">
         <v>44963</v>
       </c>
       <c r="V92" s="1" t="s">
@@ -7120,10 +7208,10 @@
       </c>
     </row>
     <row r="93" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A93" s="8" t="s">
+      <c r="A93" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B93" s="3" t="s">
+      <c r="B93" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C93" s="1" t="s">
@@ -7141,7 +7229,7 @@
       <c r="K93" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P93" s="5">
+      <c r="P93" s="4">
         <v>44963</v>
       </c>
       <c r="Q93" s="1" t="s">
@@ -7156,7 +7244,7 @@
       <c r="T93" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U93" s="5">
+      <c r="U93" s="4">
         <v>44963</v>
       </c>
       <c r="V93" s="1" t="s">
@@ -7206,10 +7294,10 @@
       </c>
     </row>
     <row r="94" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A94" s="8" t="s">
+      <c r="A94" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B94" s="3" t="s">
+      <c r="B94" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C94" s="1" t="s">
@@ -7227,7 +7315,7 @@
       <c r="K94" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P94" s="5">
+      <c r="P94" s="4">
         <v>44963</v>
       </c>
       <c r="Q94" s="1" t="s">
@@ -7242,7 +7330,7 @@
       <c r="T94" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U94" s="5">
+      <c r="U94" s="4">
         <v>44963</v>
       </c>
       <c r="V94" s="1" t="s">
@@ -7292,10 +7380,10 @@
       </c>
     </row>
     <row r="95" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A95" s="8" t="s">
+      <c r="A95" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B95" s="3" t="s">
+      <c r="B95" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C95" s="1" t="s">
@@ -7313,7 +7401,7 @@
       <c r="K95" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P95" s="5">
+      <c r="P95" s="4">
         <v>44830</v>
       </c>
       <c r="Q95" s="1" t="s">
@@ -7328,7 +7416,7 @@
       <c r="T95" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U95" s="5">
+      <c r="U95" s="4">
         <v>44830</v>
       </c>
       <c r="V95" s="1" t="s">
@@ -7378,10 +7466,10 @@
       </c>
     </row>
     <row r="96" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A96" s="8" t="s">
+      <c r="A96" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B96" s="3" t="s">
+      <c r="B96" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C96" s="1" t="s">
@@ -7399,7 +7487,7 @@
       <c r="K96" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P96" s="5">
+      <c r="P96" s="4">
         <v>44830</v>
       </c>
       <c r="Q96" s="1" t="s">
@@ -7414,7 +7502,7 @@
       <c r="T96" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U96" s="5">
+      <c r="U96" s="4">
         <v>44830</v>
       </c>
       <c r="V96" s="1" t="s">
@@ -7464,10 +7552,10 @@
       </c>
     </row>
     <row r="97" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B97" s="3" t="s">
+      <c r="B97" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C97" s="1" t="s">
@@ -7485,7 +7573,7 @@
       <c r="K97" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P97" s="5">
+      <c r="P97" s="4">
         <v>44830</v>
       </c>
       <c r="Q97" s="1" t="s">
@@ -7500,7 +7588,7 @@
       <c r="T97" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U97" s="5">
+      <c r="U97" s="4">
         <v>44830</v>
       </c>
       <c r="V97" s="1" t="s">
@@ -7550,10 +7638,10 @@
       </c>
     </row>
     <row r="98" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A98" s="8" t="s">
+      <c r="A98" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B98" s="3" t="s">
+      <c r="B98" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C98" s="1" t="s">
@@ -7571,7 +7659,7 @@
       <c r="K98" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P98" s="5">
+      <c r="P98" s="4">
         <v>44963</v>
       </c>
       <c r="Q98" s="1" t="s">
@@ -7586,7 +7674,7 @@
       <c r="T98" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U98" s="5">
+      <c r="U98" s="4">
         <v>44963</v>
       </c>
       <c r="V98" s="1" t="s">
@@ -7636,10 +7724,10 @@
       </c>
     </row>
     <row r="99" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A99" s="8" t="s">
+      <c r="A99" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B99" s="3" t="s">
+      <c r="B99" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C99" s="1" t="s">
@@ -7657,7 +7745,7 @@
       <c r="K99" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P99" s="5">
+      <c r="P99" s="4">
         <v>44963</v>
       </c>
       <c r="Q99" s="1" t="s">
@@ -7672,7 +7760,7 @@
       <c r="T99" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U99" s="5">
+      <c r="U99" s="4">
         <v>44963</v>
       </c>
       <c r="V99" s="1" t="s">
@@ -7722,10 +7810,10 @@
       </c>
     </row>
     <row r="100" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A100" s="8" t="s">
+      <c r="A100" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B100" s="3" t="s">
+      <c r="B100" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C100" s="1" t="s">
@@ -7743,7 +7831,7 @@
       <c r="K100" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P100" s="5">
+      <c r="P100" s="4">
         <v>44963</v>
       </c>
       <c r="Q100" s="1" t="s">
@@ -7758,7 +7846,7 @@
       <c r="T100" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U100" s="5">
+      <c r="U100" s="4">
         <v>44963</v>
       </c>
       <c r="V100" s="1" t="s">
@@ -7808,10 +7896,10 @@
       </c>
     </row>
     <row r="101" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A101" s="8" t="s">
+      <c r="A101" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B101" s="3" t="s">
+      <c r="B101" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C101" s="1" t="s">
@@ -7829,7 +7917,7 @@
       <c r="K101" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P101" s="5">
+      <c r="P101" s="4">
         <v>44963</v>
       </c>
       <c r="Q101" s="1" t="s">
@@ -7844,7 +7932,7 @@
       <c r="T101" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U101" s="5">
+      <c r="U101" s="4">
         <v>44963</v>
       </c>
       <c r="V101" s="1" t="s">
@@ -7894,10 +7982,10 @@
       </c>
     </row>
     <row r="102" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A102" s="8" t="s">
+      <c r="A102" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B102" s="3" t="s">
+      <c r="B102" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C102" s="1" t="s">
@@ -7915,7 +8003,7 @@
       <c r="K102" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P102" s="5">
+      <c r="P102" s="4">
         <v>42772</v>
       </c>
       <c r="Q102" s="1">
@@ -7930,7 +8018,7 @@
       <c r="T102" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U102" s="5">
+      <c r="U102" s="4">
         <v>42772</v>
       </c>
       <c r="V102" s="1">
@@ -7951,7 +8039,7 @@
       <c r="AV102" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="BK102" s="5">
+      <c r="BK102" s="4">
         <v>44962</v>
       </c>
       <c r="BL102" s="1">
@@ -7980,10 +8068,10 @@
       </c>
     </row>
     <row r="103" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A103" s="8" t="s">
+      <c r="A103" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B103" s="3" t="s">
+      <c r="B103" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C103" s="1" t="s">
@@ -8001,7 +8089,7 @@
       <c r="K103" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P103" s="5">
+      <c r="P103" s="4">
         <v>44963</v>
       </c>
       <c r="Q103" s="1" t="s">
@@ -8016,7 +8104,7 @@
       <c r="T103" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U103" s="5">
+      <c r="U103" s="4">
         <v>44963</v>
       </c>
       <c r="V103" s="1" t="s">
@@ -8066,10 +8154,10 @@
       </c>
     </row>
     <row r="104" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A104" s="8" t="s">
+      <c r="A104" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B104" s="3" t="s">
+      <c r="B104" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C104" s="1" t="s">
@@ -8087,7 +8175,7 @@
       <c r="K104" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P104" s="5">
+      <c r="P104" s="4">
         <v>44235</v>
       </c>
       <c r="Q104" s="1">
@@ -8102,7 +8190,7 @@
       <c r="T104" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U104" s="5">
+      <c r="U104" s="4">
         <v>44235</v>
       </c>
       <c r="V104" s="1">
@@ -8152,10 +8240,10 @@
       </c>
     </row>
     <row r="105" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A105" s="8" t="s">
+      <c r="A105" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B105" s="3" t="s">
+      <c r="B105" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C105" s="1" t="s">
@@ -8173,7 +8261,7 @@
       <c r="K105" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P105" s="5">
+      <c r="P105" s="4">
         <v>44627</v>
       </c>
       <c r="Q105" s="1">
@@ -8188,7 +8276,7 @@
       <c r="T105" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U105" s="5">
+      <c r="U105" s="4">
         <v>44627</v>
       </c>
       <c r="V105" s="1">
@@ -8238,10 +8326,10 @@
       </c>
     </row>
     <row r="106" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A106" s="8" t="s">
+      <c r="A106" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B106" s="3" t="s">
+      <c r="B106" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C106" s="1" t="s">
@@ -8259,7 +8347,7 @@
       <c r="K106" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P106" s="5">
+      <c r="P106" s="4">
         <v>44830</v>
       </c>
       <c r="Q106" s="1" t="s">
@@ -8274,7 +8362,7 @@
       <c r="T106" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U106" s="5">
+      <c r="U106" s="4">
         <v>44830</v>
       </c>
       <c r="V106" s="1" t="s">
@@ -8324,10 +8412,10 @@
       </c>
     </row>
     <row r="107" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A107" s="8" t="s">
+      <c r="A107" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B107" s="3" t="s">
+      <c r="B107" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C107" s="1" t="s">
@@ -8345,7 +8433,7 @@
       <c r="K107" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P107" s="5">
+      <c r="P107" s="4">
         <v>44830</v>
       </c>
       <c r="Q107" s="1" t="s">
@@ -8360,7 +8448,7 @@
       <c r="T107" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U107" s="5">
+      <c r="U107" s="4">
         <v>44830</v>
       </c>
       <c r="V107" s="1" t="s">
@@ -8410,10 +8498,10 @@
       </c>
     </row>
     <row r="108" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A108" s="8" t="s">
+      <c r="A108" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B108" s="3" t="s">
+      <c r="B108" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C108" s="1" t="s">
@@ -8431,7 +8519,7 @@
       <c r="K108" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P108" s="5">
+      <c r="P108" s="4">
         <v>44963</v>
       </c>
       <c r="Q108" s="1" t="s">
@@ -8446,7 +8534,7 @@
       <c r="T108" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U108" s="5">
+      <c r="U108" s="4">
         <v>44963</v>
       </c>
       <c r="V108" s="1" t="s">
@@ -8496,10 +8584,10 @@
       </c>
     </row>
     <row r="109" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B109" s="3" t="s">
+      <c r="B109" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C109" s="1" t="s">
@@ -8517,7 +8605,7 @@
       <c r="K109" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P109" s="5">
+      <c r="P109" s="4">
         <v>44963</v>
       </c>
       <c r="Q109" s="1" t="s">
@@ -8532,7 +8620,7 @@
       <c r="T109" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U109" s="5">
+      <c r="U109" s="4">
         <v>44963</v>
       </c>
       <c r="V109" s="1" t="s">
@@ -8582,10 +8670,10 @@
       </c>
     </row>
     <row r="110" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A110" s="8" t="s">
+      <c r="A110" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B110" s="3" t="s">
+      <c r="B110" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C110" s="1" t="s">
@@ -8603,7 +8691,7 @@
       <c r="K110" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P110" s="5">
+      <c r="P110" s="4">
         <v>44963</v>
       </c>
       <c r="Q110" s="1" t="s">
@@ -8618,7 +8706,7 @@
       <c r="T110" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U110" s="5">
+      <c r="U110" s="4">
         <v>44963</v>
       </c>
       <c r="V110" s="1" t="s">
@@ -8668,10 +8756,10 @@
       </c>
     </row>
     <row r="111" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A111" s="8" t="s">
+      <c r="A111" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B111" s="3" t="s">
+      <c r="B111" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C111" s="1" t="s">
@@ -8689,7 +8777,7 @@
       <c r="K111" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P111" s="5">
+      <c r="P111" s="4">
         <v>44963</v>
       </c>
       <c r="Q111" s="1" t="s">
@@ -8704,7 +8792,7 @@
       <c r="T111" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U111" s="5">
+      <c r="U111" s="4">
         <v>44963</v>
       </c>
       <c r="V111" s="1" t="s">
@@ -8754,10 +8842,10 @@
       </c>
     </row>
     <row r="112" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A112" s="8" t="s">
+      <c r="A112" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B112" s="3" t="s">
+      <c r="B112" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C112" s="1" t="s">
@@ -8775,7 +8863,7 @@
       <c r="K112" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P112" s="5">
+      <c r="P112" s="4">
         <v>44963</v>
       </c>
       <c r="Q112" s="1" t="s">
@@ -8790,7 +8878,7 @@
       <c r="T112" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U112" s="5">
+      <c r="U112" s="4">
         <v>44963</v>
       </c>
       <c r="V112" s="1" t="s">
@@ -8840,10 +8928,10 @@
       </c>
     </row>
     <row r="113" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A113" s="8" t="s">
+      <c r="A113" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B113" s="3" t="s">
+      <c r="B113" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C113" s="1" t="s">
@@ -8861,7 +8949,7 @@
       <c r="K113" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P113" s="5">
+      <c r="P113" s="4">
         <v>44963</v>
       </c>
       <c r="Q113" s="1" t="s">
@@ -8876,7 +8964,7 @@
       <c r="T113" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U113" s="5">
+      <c r="U113" s="4">
         <v>44963</v>
       </c>
       <c r="V113" s="1" t="s">
@@ -8926,10 +9014,10 @@
       </c>
     </row>
     <row r="114" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A114" s="8" t="s">
+      <c r="A114" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B114" s="3" t="s">
+      <c r="B114" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C114" s="1" t="s">
@@ -8947,7 +9035,7 @@
       <c r="K114" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P114" s="5">
+      <c r="P114" s="4">
         <v>44830</v>
       </c>
       <c r="Q114" s="1" t="s">
@@ -8962,7 +9050,7 @@
       <c r="T114" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U114" s="5">
+      <c r="U114" s="4">
         <v>44830</v>
       </c>
       <c r="V114" s="1" t="s">
@@ -9012,10 +9100,10 @@
       </c>
     </row>
     <row r="115" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A115" s="8" t="s">
+      <c r="A115" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C115" s="1" t="s">
@@ -9033,7 +9121,7 @@
       <c r="K115" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P115" s="5">
+      <c r="P115" s="4">
         <v>44963</v>
       </c>
       <c r="Q115" s="1" t="s">
@@ -9048,7 +9136,7 @@
       <c r="T115" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U115" s="5">
+      <c r="U115" s="4">
         <v>44963</v>
       </c>
       <c r="V115" s="1" t="s">
@@ -9098,10 +9186,10 @@
       </c>
     </row>
     <row r="116" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A116" s="8" t="s">
+      <c r="A116" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B116" s="3" t="s">
+      <c r="B116" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C116" s="1" t="s">
@@ -9119,7 +9207,7 @@
       <c r="K116" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P116" s="5">
+      <c r="P116" s="4">
         <v>44963</v>
       </c>
       <c r="Q116" s="1" t="s">
@@ -9134,7 +9222,7 @@
       <c r="T116" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U116" s="5">
+      <c r="U116" s="4">
         <v>44963</v>
       </c>
       <c r="V116" s="1" t="s">
@@ -9184,10 +9272,10 @@
       </c>
     </row>
     <row r="117" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A117" s="8" t="s">
+      <c r="A117" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B117" s="3" t="s">
+      <c r="B117" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C117" s="1" t="s">
@@ -9205,7 +9293,7 @@
       <c r="K117" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P117" s="5">
+      <c r="P117" s="4">
         <v>44963</v>
       </c>
       <c r="Q117" s="1" t="s">
@@ -9220,7 +9308,7 @@
       <c r="T117" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U117" s="5">
+      <c r="U117" s="4">
         <v>44963</v>
       </c>
       <c r="V117" s="1" t="s">
@@ -9270,10 +9358,10 @@
       </c>
     </row>
     <row r="118" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A118" s="8" t="s">
+      <c r="A118" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B118" s="3" t="s">
+      <c r="B118" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C118" s="1" t="s">
@@ -9291,7 +9379,7 @@
       <c r="K118" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P118" s="5">
+      <c r="P118" s="4">
         <v>44963</v>
       </c>
       <c r="Q118" s="1" t="s">
@@ -9306,7 +9394,7 @@
       <c r="T118" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U118" s="5">
+      <c r="U118" s="4">
         <v>44963</v>
       </c>
       <c r="V118" s="1" t="s">
@@ -9356,10 +9444,10 @@
       </c>
     </row>
     <row r="119" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B119" s="3" t="s">
+      <c r="B119" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C119" s="1" t="s">
@@ -9377,7 +9465,7 @@
       <c r="K119" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P119" s="5">
+      <c r="P119" s="4">
         <v>44963</v>
       </c>
       <c r="Q119" s="1" t="s">
@@ -9392,7 +9480,7 @@
       <c r="T119" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U119" s="5">
+      <c r="U119" s="4">
         <v>44963</v>
       </c>
       <c r="V119" s="1" t="s">
@@ -9442,10 +9530,10 @@
       </c>
     </row>
     <row r="120" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A120" s="8" t="s">
+      <c r="A120" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B120" s="3" t="s">
+      <c r="B120" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C120" s="1" t="s">
@@ -9463,7 +9551,7 @@
       <c r="K120" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P120" s="5">
+      <c r="P120" s="4">
         <v>44963</v>
       </c>
       <c r="Q120" s="1" t="s">
@@ -9478,7 +9566,7 @@
       <c r="T120" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U120" s="5">
+      <c r="U120" s="4">
         <v>44963</v>
       </c>
       <c r="V120" s="1" t="s">
@@ -9528,10 +9616,10 @@
       </c>
     </row>
     <row r="121" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A121" s="8" t="s">
+      <c r="A121" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B121" s="3" t="s">
+      <c r="B121" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C121" s="1" t="s">
@@ -9549,7 +9637,7 @@
       <c r="K121" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P121" s="5">
+      <c r="P121" s="4">
         <v>44963</v>
       </c>
       <c r="Q121" s="1" t="s">
@@ -9564,7 +9652,7 @@
       <c r="T121" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U121" s="5">
+      <c r="U121" s="4">
         <v>44963</v>
       </c>
       <c r="V121" s="1" t="s">
@@ -9614,10 +9702,10 @@
       </c>
     </row>
     <row r="122" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A122" s="8" t="s">
+      <c r="A122" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B122" s="3" t="s">
+      <c r="B122" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C122" s="1" t="s">
@@ -9635,7 +9723,7 @@
       <c r="K122" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P122" s="5">
+      <c r="P122" s="4">
         <v>44963</v>
       </c>
       <c r="Q122" s="1" t="s">
@@ -9650,7 +9738,7 @@
       <c r="T122" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U122" s="5">
+      <c r="U122" s="4">
         <v>44963</v>
       </c>
       <c r="V122" s="1" t="s">
@@ -9700,10 +9788,10 @@
       </c>
     </row>
     <row r="123" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A123" s="8" t="s">
+      <c r="A123" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B123" s="3" t="s">
+      <c r="B123" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C123" s="1" t="s">
@@ -9721,7 +9809,7 @@
       <c r="K123" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P123" s="5">
+      <c r="P123" s="4">
         <v>44963</v>
       </c>
       <c r="Q123" s="1" t="s">
@@ -9736,7 +9824,7 @@
       <c r="T123" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U123" s="5">
+      <c r="U123" s="4">
         <v>44963</v>
       </c>
       <c r="V123" s="1" t="s">
@@ -9786,10 +9874,10 @@
       </c>
     </row>
     <row r="124" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A124" s="8" t="s">
+      <c r="A124" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B124" s="3" t="s">
+      <c r="B124" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C124" s="1" t="s">
@@ -9807,7 +9895,7 @@
       <c r="K124" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P124" s="5">
+      <c r="P124" s="4">
         <v>44830</v>
       </c>
       <c r="Q124" s="1" t="s">
@@ -9822,7 +9910,7 @@
       <c r="T124" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U124" s="5">
+      <c r="U124" s="4">
         <v>44830</v>
       </c>
       <c r="V124" s="1" t="s">
@@ -9872,10 +9960,10 @@
       </c>
     </row>
     <row r="125" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A125" s="8" t="s">
+      <c r="A125" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B125" s="3" t="s">
+      <c r="B125" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C125" s="1" t="s">
@@ -9893,7 +9981,7 @@
       <c r="K125" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P125" s="5">
+      <c r="P125" s="4">
         <v>44963</v>
       </c>
       <c r="Q125" s="1" t="s">
@@ -9908,7 +9996,7 @@
       <c r="T125" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U125" s="5">
+      <c r="U125" s="4">
         <v>44963</v>
       </c>
       <c r="V125" s="1" t="s">
@@ -9958,10 +10046,10 @@
       </c>
     </row>
     <row r="126" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A126" s="8" t="s">
+      <c r="A126" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B126" s="3" t="s">
+      <c r="B126" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C126" s="1" t="s">
@@ -9979,7 +10067,7 @@
       <c r="K126" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P126" s="5">
+      <c r="P126" s="4">
         <v>44963</v>
       </c>
       <c r="Q126" s="1" t="s">
@@ -9994,7 +10082,7 @@
       <c r="T126" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U126" s="5">
+      <c r="U126" s="4">
         <v>44963</v>
       </c>
       <c r="V126" s="1" t="s">
@@ -10044,10 +10132,10 @@
       </c>
     </row>
     <row r="127" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A127" s="8" t="s">
+      <c r="A127" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B127" s="3" t="s">
+      <c r="B127" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C127" s="1" t="s">
@@ -10065,7 +10153,7 @@
       <c r="K127" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P127" s="5">
+      <c r="P127" s="4">
         <v>44466</v>
       </c>
       <c r="Q127" s="1">
@@ -10080,7 +10168,7 @@
       <c r="T127" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U127" s="5">
+      <c r="U127" s="4">
         <v>44466</v>
       </c>
       <c r="V127" s="1">
@@ -10101,7 +10189,7 @@
       <c r="AV127" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="BK127" s="5">
+      <c r="BK127" s="4">
         <v>45086</v>
       </c>
       <c r="BL127" s="1">
@@ -10130,10 +10218,10 @@
       </c>
     </row>
     <row r="128" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A128" s="8" t="s">
+      <c r="A128" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B128" s="3" t="s">
+      <c r="B128" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C128" s="1" t="s">
@@ -10151,7 +10239,7 @@
       <c r="K128" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P128" s="5">
+      <c r="P128" s="4">
         <v>44627</v>
       </c>
       <c r="Q128" s="1">
@@ -10166,7 +10254,7 @@
       <c r="T128" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U128" s="5">
+      <c r="U128" s="4">
         <v>44627</v>
       </c>
       <c r="V128" s="1">
@@ -10216,10 +10304,10 @@
       </c>
     </row>
     <row r="129" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A129" s="8" t="s">
+      <c r="A129" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B129" s="3" t="s">
+      <c r="B129" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C129" s="1" t="s">
@@ -10237,7 +10325,7 @@
       <c r="K129" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P129" s="5">
+      <c r="P129" s="4">
         <v>44627</v>
       </c>
       <c r="Q129" s="1">
@@ -10252,7 +10340,7 @@
       <c r="T129" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U129" s="5">
+      <c r="U129" s="4">
         <v>44627</v>
       </c>
       <c r="V129" s="1">
@@ -10273,7 +10361,7 @@
       <c r="AV129" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="BK129" s="5">
+      <c r="BK129" s="4">
         <v>44806</v>
       </c>
       <c r="BL129" s="1">
@@ -10302,10 +10390,10 @@
       </c>
     </row>
     <row r="130" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A130" s="8" t="s">
+      <c r="A130" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C130" s="1" t="s">
@@ -10323,7 +10411,7 @@
       <c r="K130" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P130" s="5">
+      <c r="P130" s="4">
         <v>44963</v>
       </c>
       <c r="Q130" s="1" t="s">
@@ -10338,7 +10426,7 @@
       <c r="T130" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U130" s="5">
+      <c r="U130" s="4">
         <v>44963</v>
       </c>
       <c r="V130" s="1" t="s">
@@ -10388,10 +10476,10 @@
       </c>
     </row>
     <row r="131" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B131" s="3" t="s">
+      <c r="B131" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C131" s="1" t="s">
@@ -10409,7 +10497,7 @@
       <c r="K131" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P131" s="5">
+      <c r="P131" s="4">
         <v>44872</v>
       </c>
       <c r="Q131" s="1" t="s">
@@ -10424,7 +10512,7 @@
       <c r="T131" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U131" s="5">
+      <c r="U131" s="4">
         <v>44872</v>
       </c>
       <c r="V131" s="1" t="s">
@@ -10474,10 +10562,10 @@
       </c>
     </row>
     <row r="132" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A132" s="8" t="s">
+      <c r="A132" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B132" s="3" t="s">
+      <c r="B132" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C132" s="1" t="s">
@@ -10495,7 +10583,7 @@
       <c r="K132" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P132" s="5">
+      <c r="P132" s="4">
         <v>44872</v>
       </c>
       <c r="Q132" s="1" t="s">
@@ -10510,7 +10598,7 @@
       <c r="T132" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U132" s="5">
+      <c r="U132" s="4">
         <v>44872</v>
       </c>
       <c r="V132" s="1" t="s">
@@ -10560,10 +10648,10 @@
       </c>
     </row>
     <row r="133" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A133" s="8" t="s">
+      <c r="A133" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B133" s="3" t="s">
+      <c r="B133" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C133" s="1" t="s">
@@ -10581,7 +10669,7 @@
       <c r="K133" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P133" s="5">
+      <c r="P133" s="4">
         <v>44830</v>
       </c>
       <c r="Q133" s="1" t="s">
@@ -10596,7 +10684,7 @@
       <c r="T133" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U133" s="5">
+      <c r="U133" s="4">
         <v>44830</v>
       </c>
       <c r="V133" s="1" t="s">
@@ -10646,10 +10734,10 @@
       </c>
     </row>
     <row r="134" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A134" s="8" t="s">
+      <c r="A134" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B134" s="3" t="s">
+      <c r="B134" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C134" s="1" t="s">
@@ -10667,7 +10755,7 @@
       <c r="K134" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P134" s="5">
+      <c r="P134" s="4">
         <v>44963</v>
       </c>
       <c r="Q134" s="1" t="s">
@@ -10682,7 +10770,7 @@
       <c r="T134" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U134" s="5">
+      <c r="U134" s="4">
         <v>44963</v>
       </c>
       <c r="V134" s="1" t="s">
@@ -10732,10 +10820,10 @@
       </c>
     </row>
     <row r="135" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A135" s="8" t="s">
+      <c r="A135" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B135" s="3" t="s">
+      <c r="B135" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C135" s="1" t="s">
@@ -10753,7 +10841,7 @@
       <c r="K135" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P135" s="5">
+      <c r="P135" s="4">
         <v>44963</v>
       </c>
       <c r="Q135" s="1" t="s">
@@ -10768,7 +10856,7 @@
       <c r="T135" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U135" s="5">
+      <c r="U135" s="4">
         <v>44963</v>
       </c>
       <c r="V135" s="1" t="s">
@@ -10818,10 +10906,10 @@
       </c>
     </row>
     <row r="136" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A136" s="8" t="s">
+      <c r="A136" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B136" s="3" t="s">
+      <c r="B136" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C136" s="1" t="s">
@@ -10839,7 +10927,7 @@
       <c r="K136" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P136" s="5">
+      <c r="P136" s="4">
         <v>44830</v>
       </c>
       <c r="Q136" s="1" t="s">
@@ -10854,7 +10942,7 @@
       <c r="T136" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U136" s="5">
+      <c r="U136" s="4">
         <v>44830</v>
       </c>
       <c r="V136" s="1" t="s">
@@ -10904,10 +10992,10 @@
       </c>
     </row>
     <row r="137" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B137" s="3" t="s">
+      <c r="B137" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C137" s="1" t="s">
@@ -10925,7 +11013,7 @@
       <c r="K137" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P137" s="5">
+      <c r="P137" s="4">
         <v>44963</v>
       </c>
       <c r="Q137" s="1" t="s">
@@ -10940,7 +11028,7 @@
       <c r="T137" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U137" s="5">
+      <c r="U137" s="4">
         <v>44963</v>
       </c>
       <c r="V137" s="1" t="s">
@@ -10990,10 +11078,10 @@
       </c>
     </row>
     <row r="138" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A138" s="8" t="s">
+      <c r="A138" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B138" s="3" t="s">
+      <c r="B138" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C138" s="1" t="s">
@@ -11011,7 +11099,7 @@
       <c r="K138" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P138" s="5">
+      <c r="P138" s="4">
         <v>44963</v>
       </c>
       <c r="Q138" s="1" t="s">
@@ -11026,7 +11114,7 @@
       <c r="T138" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U138" s="5">
+      <c r="U138" s="4">
         <v>44963</v>
       </c>
       <c r="V138" s="1" t="s">
@@ -11076,10 +11164,10 @@
       </c>
     </row>
     <row r="139" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A139" s="8" t="s">
+      <c r="A139" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B139" s="3" t="s">
+      <c r="B139" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C139" s="1" t="s">
@@ -11097,7 +11185,7 @@
       <c r="K139" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="P139" s="5">
+      <c r="P139" s="4">
         <v>43243</v>
       </c>
       <c r="Q139" s="1">
@@ -11112,7 +11200,7 @@
       <c r="T139" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U139" s="5">
+      <c r="U139" s="4">
         <v>43243</v>
       </c>
       <c r="V139" s="1">
@@ -11162,10 +11250,10 @@
       </c>
     </row>
     <row r="140" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A140" s="8" t="s">
+      <c r="A140" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B140" s="3" t="s">
+      <c r="B140" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C140" s="1" t="s">
@@ -11183,7 +11271,7 @@
       <c r="K140" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P140" s="5">
+      <c r="P140" s="4">
         <v>44872</v>
       </c>
       <c r="Q140" s="1" t="s">
@@ -11198,7 +11286,7 @@
       <c r="T140" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U140" s="5">
+      <c r="U140" s="4">
         <v>44872</v>
       </c>
       <c r="V140" s="1" t="s">
@@ -11248,10 +11336,10 @@
       </c>
     </row>
     <row r="141" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A141" s="8" t="s">
+      <c r="A141" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B141" s="3" t="s">
+      <c r="B141" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C141" s="1" t="s">
@@ -11269,7 +11357,7 @@
       <c r="K141" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P141" s="5">
+      <c r="P141" s="4">
         <v>44963</v>
       </c>
       <c r="Q141" s="1" t="s">
@@ -11284,7 +11372,7 @@
       <c r="T141" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U141" s="5">
+      <c r="U141" s="4">
         <v>44963</v>
       </c>
       <c r="V141" s="1" t="s">
@@ -11334,10 +11422,10 @@
       </c>
     </row>
     <row r="142" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A142" s="8" t="s">
+      <c r="A142" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B142" s="3" t="s">
+      <c r="B142" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C142" s="1" t="s">
@@ -11355,7 +11443,7 @@
       <c r="K142" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P142" s="5">
+      <c r="P142" s="4">
         <v>44963</v>
       </c>
       <c r="Q142" s="1" t="s">
@@ -11370,7 +11458,7 @@
       <c r="T142" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U142" s="5">
+      <c r="U142" s="4">
         <v>44963</v>
       </c>
       <c r="V142" s="1" t="s">
@@ -11420,10 +11508,10 @@
       </c>
     </row>
     <row r="143" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A143" s="8" t="s">
+      <c r="A143" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B143" s="3" t="s">
+      <c r="B143" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C143" s="1" t="s">
@@ -11441,7 +11529,7 @@
       <c r="K143" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P143" s="5">
+      <c r="P143" s="4">
         <v>44963</v>
       </c>
       <c r="Q143" s="1" t="s">
@@ -11456,7 +11544,7 @@
       <c r="T143" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U143" s="5">
+      <c r="U143" s="4">
         <v>44963</v>
       </c>
       <c r="V143" s="1" t="s">
@@ -11506,10 +11594,10 @@
       </c>
     </row>
     <row r="144" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A144" s="8" t="s">
+      <c r="A144" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B144" s="3" t="s">
+      <c r="B144" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C144" s="1" t="s">
@@ -11527,7 +11615,7 @@
       <c r="K144" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P144" s="5">
+      <c r="P144" s="4">
         <v>44830</v>
       </c>
       <c r="Q144" s="1" t="s">
@@ -11542,7 +11630,7 @@
       <c r="T144" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U144" s="5">
+      <c r="U144" s="4">
         <v>44830</v>
       </c>
       <c r="V144" s="1" t="s">
@@ -11592,10 +11680,10 @@
       </c>
     </row>
     <row r="145" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A145" s="8" t="s">
+      <c r="A145" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B145" s="3" t="s">
+      <c r="B145" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C145" s="1" t="s">
@@ -11613,7 +11701,7 @@
       <c r="K145" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P145" s="5">
+      <c r="P145" s="4">
         <v>44963</v>
       </c>
       <c r="Q145" s="1" t="s">
@@ -11628,7 +11716,7 @@
       <c r="T145" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U145" s="5">
+      <c r="U145" s="4">
         <v>44963</v>
       </c>
       <c r="V145" s="1" t="s">
@@ -11678,10 +11766,10 @@
       </c>
     </row>
     <row r="146" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A146" s="8" t="s">
+      <c r="A146" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B146" s="3" t="s">
+      <c r="B146" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C146" s="1" t="s">
@@ -11699,7 +11787,7 @@
       <c r="K146" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P146" s="5">
+      <c r="P146" s="4">
         <v>44872</v>
       </c>
       <c r="Q146" s="1" t="s">
@@ -11714,7 +11802,7 @@
       <c r="T146" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U146" s="5">
+      <c r="U146" s="4">
         <v>44872</v>
       </c>
       <c r="V146" s="1" t="s">
@@ -11764,10 +11852,10 @@
       </c>
     </row>
     <row r="147" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A147" s="8" t="s">
+      <c r="A147" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B147" s="3" t="s">
+      <c r="B147" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C147" s="1" t="s">
@@ -11785,7 +11873,7 @@
       <c r="K147" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P147" s="5">
+      <c r="P147" s="4">
         <v>44872</v>
       </c>
       <c r="Q147" s="1" t="s">
@@ -11800,7 +11888,7 @@
       <c r="T147" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U147" s="5">
+      <c r="U147" s="4">
         <v>44872</v>
       </c>
       <c r="V147" s="1" t="s">
@@ -11850,10 +11938,10 @@
       </c>
     </row>
     <row r="148" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A148" s="8" t="s">
+      <c r="A148" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B148" s="3" t="s">
+      <c r="B148" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C148" s="1" t="s">
@@ -11871,7 +11959,7 @@
       <c r="K148" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P148" s="5">
+      <c r="P148" s="4">
         <v>44963</v>
       </c>
       <c r="Q148" s="1" t="s">
@@ -11886,7 +11974,7 @@
       <c r="T148" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U148" s="5">
+      <c r="U148" s="4">
         <v>44963</v>
       </c>
       <c r="V148" s="1" t="s">
@@ -11936,10 +12024,10 @@
       </c>
     </row>
     <row r="149" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A149" s="8" t="s">
+      <c r="A149" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B149" s="3" t="s">
+      <c r="B149" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C149" s="1" t="s">
@@ -11957,7 +12045,7 @@
       <c r="K149" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P149" s="5">
+      <c r="P149" s="4">
         <v>44830</v>
       </c>
       <c r="Q149" s="1" t="s">
@@ -11972,7 +12060,7 @@
       <c r="T149" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U149" s="5">
+      <c r="U149" s="4">
         <v>44830</v>
       </c>
       <c r="V149" s="1" t="s">
@@ -12022,10 +12110,10 @@
       </c>
     </row>
     <row r="150" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A150" s="8" t="s">
+      <c r="A150" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B150" s="3" t="s">
+      <c r="B150" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C150" s="1" t="s">
@@ -12043,7 +12131,7 @@
       <c r="K150" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P150" s="5">
+      <c r="P150" s="4">
         <v>44872</v>
       </c>
       <c r="Q150" s="1" t="s">
@@ -12058,7 +12146,7 @@
       <c r="T150" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U150" s="5">
+      <c r="U150" s="4">
         <v>44872</v>
       </c>
       <c r="V150" s="1" t="s">
@@ -12108,10 +12196,10 @@
       </c>
     </row>
     <row r="151" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A151" s="8" t="s">
+      <c r="A151" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B151" s="3" t="s">
+      <c r="B151" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C151" s="1" t="s">
@@ -12129,7 +12217,7 @@
       <c r="K151" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P151" s="5">
+      <c r="P151" s="4">
         <v>44963</v>
       </c>
       <c r="Q151" s="1" t="s">
@@ -12144,7 +12232,7 @@
       <c r="T151" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U151" s="5">
+      <c r="U151" s="4">
         <v>44963</v>
       </c>
       <c r="V151" s="1" t="s">
@@ -12194,10 +12282,10 @@
       </c>
     </row>
     <row r="152" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A152" s="8" t="s">
+      <c r="A152" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B152" s="3" t="s">
+      <c r="B152" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C152" s="1" t="s">
@@ -12215,7 +12303,7 @@
       <c r="K152" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P152" s="5">
+      <c r="P152" s="4">
         <v>44963</v>
       </c>
       <c r="Q152" s="1" t="s">
@@ -12230,7 +12318,7 @@
       <c r="T152" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U152" s="5">
+      <c r="U152" s="4">
         <v>44963</v>
       </c>
       <c r="V152" s="1" t="s">
@@ -12280,10 +12368,10 @@
       </c>
     </row>
     <row r="153" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A153" s="8" t="s">
+      <c r="A153" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B153" s="3" t="s">
+      <c r="B153" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C153" s="1" t="s">
@@ -12301,7 +12389,7 @@
       <c r="K153" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="P153" s="5">
+      <c r="P153" s="4">
         <v>44963</v>
       </c>
       <c r="Q153" s="1" t="s">
@@ -12316,7 +12404,7 @@
       <c r="T153" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U153" s="5">
+      <c r="U153" s="4">
         <v>44963</v>
       </c>
       <c r="V153" s="1" t="s">
@@ -12366,10 +12454,10 @@
       </c>
     </row>
     <row r="154" spans="1:122" ht="13" x14ac:dyDescent="0.15">
-      <c r="A154" s="8" t="s">
+      <c r="A154" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="B154" s="3" t="s">
+      <c r="B154" s="11" t="s">
         <v>169</v>
       </c>
       <c r="C154" s="1" t="s">
@@ -12387,7 +12475,7 @@
       <c r="K154" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="P154" s="5">
+      <c r="P154" s="4">
         <v>44963</v>
       </c>
       <c r="Q154" s="1" t="s">
@@ -12402,7 +12490,7 @@
       <c r="T154" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U154" s="5">
+      <c r="U154" s="4">
         <v>44963</v>
       </c>
       <c r="V154" s="1" t="s">
@@ -16055,7 +16143,7 @@
       <c r="A227" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B227" s="4" t="s">
+      <c r="B227" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C227" s="1" t="s">
@@ -16108,7 +16196,7 @@
       <c r="A228" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B228" s="4" t="s">
+      <c r="B228" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C228" s="1" t="s">
@@ -16161,7 +16249,7 @@
       <c r="A229" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B229" s="4" t="s">
+      <c r="B229" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C229" s="1" t="s">
@@ -16214,7 +16302,7 @@
       <c r="A230" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B230" s="4" t="s">
+      <c r="B230" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C230" s="1" t="s">
@@ -16267,7 +16355,7 @@
       <c r="A231" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B231" s="4" t="s">
+      <c r="B231" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C231" s="1" t="s">
@@ -16320,7 +16408,7 @@
       <c r="A232" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B232" s="4" t="s">
+      <c r="B232" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C232" s="1" t="s">
@@ -16373,7 +16461,7 @@
       <c r="A233" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B233" s="4" t="s">
+      <c r="B233" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C233" s="1" t="s">
@@ -16426,7 +16514,7 @@
       <c r="A234" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B234" s="4" t="s">
+      <c r="B234" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C234" s="1" t="s">
@@ -16479,7 +16567,7 @@
       <c r="A235" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B235" s="4" t="s">
+      <c r="B235" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C235" s="1" t="s">
@@ -16532,7 +16620,7 @@
       <c r="A236" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B236" s="4" t="s">
+      <c r="B236" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C236" s="1" t="s">
@@ -16585,7 +16673,7 @@
       <c r="A237" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B237" s="4" t="s">
+      <c r="B237" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C237" s="1" t="s">
@@ -16638,7 +16726,7 @@
       <c r="A238" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B238" s="4" t="s">
+      <c r="B238" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C238" s="1" t="s">
@@ -16691,7 +16779,7 @@
       <c r="A239" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B239" s="4" t="s">
+      <c r="B239" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C239" s="1" t="s">
@@ -16744,7 +16832,7 @@
       <c r="A240" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B240" s="4" t="s">
+      <c r="B240" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C240" s="1" t="s">
@@ -16797,7 +16885,7 @@
       <c r="A241" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B241" s="4" t="s">
+      <c r="B241" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C241" s="1" t="s">
@@ -16850,7 +16938,7 @@
       <c r="A242" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B242" s="4" t="s">
+      <c r="B242" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C242" s="1" t="s">
@@ -16903,7 +16991,7 @@
       <c r="A243" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B243" s="4" t="s">
+      <c r="B243" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C243" s="1" t="s">
@@ -16956,7 +17044,7 @@
       <c r="A244" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B244" s="4" t="s">
+      <c r="B244" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C244" s="1" t="s">
@@ -17009,7 +17097,7 @@
       <c r="A245" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B245" s="4" t="s">
+      <c r="B245" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C245" s="1" t="s">
@@ -17062,7 +17150,7 @@
       <c r="A246" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B246" s="4" t="s">
+      <c r="B246" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C246" s="1" t="s">
@@ -17115,7 +17203,7 @@
       <c r="A247" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B247" s="4" t="s">
+      <c r="B247" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C247" s="1" t="s">
@@ -17168,7 +17256,7 @@
       <c r="A248" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B248" s="4" t="s">
+      <c r="B248" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C248" s="1" t="s">
@@ -17221,7 +17309,7 @@
       <c r="A249" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B249" s="4" t="s">
+      <c r="B249" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C249" s="1" t="s">
@@ -17274,7 +17362,7 @@
       <c r="A250" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B250" s="4" t="s">
+      <c r="B250" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C250" s="1" t="s">
@@ -17327,7 +17415,7 @@
       <c r="A251" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B251" s="4" t="s">
+      <c r="B251" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C251" s="1" t="s">
@@ -17380,7 +17468,7 @@
       <c r="A252" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B252" s="4" t="s">
+      <c r="B252" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C252" s="1" t="s">
@@ -17433,7 +17521,7 @@
       <c r="A253" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B253" s="4" t="s">
+      <c r="B253" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C253" s="1" t="s">
@@ -17486,7 +17574,7 @@
       <c r="A254" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B254" s="4" t="s">
+      <c r="B254" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C254" s="1" t="s">
@@ -17539,7 +17627,7 @@
       <c r="A255" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B255" s="4" t="s">
+      <c r="B255" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C255" s="1" t="s">
@@ -17592,7 +17680,7 @@
       <c r="A256" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B256" s="4" t="s">
+      <c r="B256" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C256" s="1" t="s">
@@ -17645,7 +17733,7 @@
       <c r="A257" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B257" s="4" t="s">
+      <c r="B257" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C257" s="1" t="s">
@@ -17698,7 +17786,7 @@
       <c r="A258" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B258" s="4" t="s">
+      <c r="B258" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C258" s="1" t="s">
@@ -17751,7 +17839,7 @@
       <c r="A259" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B259" s="4" t="s">
+      <c r="B259" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C259" s="1" t="s">
@@ -17804,7 +17892,7 @@
       <c r="A260" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B260" s="4" t="s">
+      <c r="B260" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C260" s="1" t="s">
@@ -17857,7 +17945,7 @@
       <c r="A261" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B261" s="4" t="s">
+      <c r="B261" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C261" s="1" t="s">
@@ -17910,7 +17998,7 @@
       <c r="A262" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B262" s="4" t="s">
+      <c r="B262" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C262" s="1" t="s">
@@ -17963,7 +18051,7 @@
       <c r="A263" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B263" s="4" t="s">
+      <c r="B263" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C263" s="1" t="s">
@@ -18016,7 +18104,7 @@
       <c r="A264" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B264" s="4" t="s">
+      <c r="B264" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C264" s="1" t="s">
@@ -18069,7 +18157,7 @@
       <c r="A265" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B265" s="4" t="s">
+      <c r="B265" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C265" s="1" t="s">
@@ -18122,7 +18210,7 @@
       <c r="A266" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B266" s="4" t="s">
+      <c r="B266" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C266" s="1" t="s">
@@ -18175,7 +18263,7 @@
       <c r="A267" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B267" s="4" t="s">
+      <c r="B267" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C267" s="1" t="s">
@@ -18228,7 +18316,7 @@
       <c r="A268" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B268" s="4" t="s">
+      <c r="B268" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C268" s="1" t="s">
@@ -18281,7 +18369,7 @@
       <c r="A269" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B269" s="4" t="s">
+      <c r="B269" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C269" s="1" t="s">
@@ -18334,7 +18422,7 @@
       <c r="A270" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B270" s="4" t="s">
+      <c r="B270" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C270" s="1" t="s">
@@ -18387,7 +18475,7 @@
       <c r="A271" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B271" s="4" t="s">
+      <c r="B271" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C271" s="1" t="s">
@@ -18440,7 +18528,7 @@
       <c r="A272" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B272" s="4" t="s">
+      <c r="B272" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C272" s="1" t="s">
@@ -18493,7 +18581,7 @@
       <c r="A273" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B273" s="4" t="s">
+      <c r="B273" s="3" t="s">
         <v>240</v>
       </c>
       <c r="C273" s="1" t="s">
@@ -18555,10 +18643,10 @@
       </c>
     </row>
     <row r="274" spans="1:135" ht="13" x14ac:dyDescent="0.15">
-      <c r="A274" s="8" t="s">
+      <c r="A274" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B274" s="3" t="s">
+      <c r="B274" s="11" t="s">
         <v>251</v>
       </c>
       <c r="C274" s="1" t="s">
@@ -18585,7 +18673,7 @@
       <c r="DB274" s="1">
         <v>98</v>
       </c>
-      <c r="DC274" s="5">
+      <c r="DC274" s="4">
         <v>44722</v>
       </c>
       <c r="DD274" s="1" t="s">
@@ -18593,10 +18681,10 @@
       </c>
     </row>
     <row r="275" spans="1:135" ht="13" x14ac:dyDescent="0.15">
-      <c r="A275" s="8" t="s">
+      <c r="A275" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B275" s="3" t="s">
+      <c r="B275" s="11" t="s">
         <v>251</v>
       </c>
       <c r="C275" s="1" t="s">
@@ -18623,7 +18711,7 @@
       <c r="DB275" s="1">
         <v>98</v>
       </c>
-      <c r="DC275" s="5">
+      <c r="DC275" s="4">
         <v>44589</v>
       </c>
       <c r="DD275" s="1" t="s">
@@ -18631,10 +18719,10 @@
       </c>
     </row>
     <row r="276" spans="1:135" ht="13" x14ac:dyDescent="0.15">
-      <c r="A276" s="8" t="s">
+      <c r="A276" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B276" s="3" t="s">
+      <c r="B276" s="11" t="s">
         <v>251</v>
       </c>
       <c r="C276" s="1" t="s">
@@ -18661,7 +18749,7 @@
       <c r="DB276" s="1">
         <v>98</v>
       </c>
-      <c r="DC276" s="5">
+      <c r="DC276" s="4">
         <v>44722</v>
       </c>
       <c r="DD276" s="1" t="s">
@@ -18669,10 +18757,10 @@
       </c>
     </row>
     <row r="277" spans="1:135" ht="13" x14ac:dyDescent="0.15">
-      <c r="A277" s="8" t="s">
+      <c r="A277" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B277" s="3" t="s">
+      <c r="B277" s="11" t="s">
         <v>251</v>
       </c>
       <c r="C277" s="1" t="s">
@@ -18699,7 +18787,7 @@
       <c r="DB277" s="1">
         <v>98</v>
       </c>
-      <c r="DC277" s="5">
+      <c r="DC277" s="4">
         <v>44722</v>
       </c>
       <c r="DD277" s="1" t="s">
@@ -18707,10 +18795,10 @@
       </c>
     </row>
     <row r="278" spans="1:135" ht="13" x14ac:dyDescent="0.15">
-      <c r="A278" s="8" t="s">
+      <c r="A278" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B278" s="3" t="s">
+      <c r="B278" s="11" t="s">
         <v>251</v>
       </c>
       <c r="C278" s="1" t="s">
@@ -18737,7 +18825,7 @@
       <c r="DB278" s="1">
         <v>98</v>
       </c>
-      <c r="DC278" s="5">
+      <c r="DC278" s="4">
         <v>44722</v>
       </c>
       <c r="DD278" s="1" t="s">
@@ -18745,10 +18833,10 @@
       </c>
     </row>
     <row r="279" spans="1:135" ht="13" x14ac:dyDescent="0.15">
-      <c r="A279" s="8" t="s">
+      <c r="A279" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B279" s="3" t="s">
+      <c r="B279" s="11" t="s">
         <v>251</v>
       </c>
       <c r="C279" s="1" t="s">
@@ -18775,7 +18863,7 @@
       <c r="DB279" s="1">
         <v>98</v>
       </c>
-      <c r="DC279" s="5">
+      <c r="DC279" s="4">
         <v>44722</v>
       </c>
       <c r="DD279" s="1" t="s">
@@ -18783,10 +18871,10 @@
       </c>
     </row>
     <row r="280" spans="1:135" ht="13" x14ac:dyDescent="0.15">
-      <c r="A280" s="8" t="s">
+      <c r="A280" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B280" s="3" t="s">
+      <c r="B280" s="11" t="s">
         <v>251</v>
       </c>
       <c r="C280" s="1" t="s">
@@ -18813,7 +18901,7 @@
       <c r="DB280" s="1">
         <v>98</v>
       </c>
-      <c r="DC280" s="5">
+      <c r="DC280" s="4">
         <v>44589</v>
       </c>
       <c r="DD280" s="1" t="s">
@@ -18821,10 +18909,10 @@
       </c>
     </row>
     <row r="281" spans="1:135" ht="13" x14ac:dyDescent="0.15">
-      <c r="A281" s="8" t="s">
+      <c r="A281" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B281" s="3" t="s">
+      <c r="B281" s="11" t="s">
         <v>251</v>
       </c>
       <c r="C281" s="1" t="s">
@@ -18851,7 +18939,7 @@
       <c r="DB281" s="1">
         <v>98</v>
       </c>
-      <c r="DC281" s="5">
+      <c r="DC281" s="4">
         <v>44722</v>
       </c>
       <c r="DD281" s="1" t="s">
@@ -18859,10 +18947,10 @@
       </c>
     </row>
     <row r="282" spans="1:135" ht="13" x14ac:dyDescent="0.15">
-      <c r="A282" s="8" t="s">
+      <c r="A282" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="B282" s="3" t="s">
+      <c r="B282" s="11" t="s">
         <v>251</v>
       </c>
       <c r="C282" s="1" t="s">
@@ -18889,7 +18977,7 @@
       <c r="DB282" s="1">
         <v>98</v>
       </c>
-      <c r="DC282" s="5">
+      <c r="DC282" s="4">
         <v>44722</v>
       </c>
       <c r="DD282" s="1" t="s">
@@ -18900,7 +18988,7 @@
       <c r="A283" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B283" s="7" t="s">
+      <c r="B283" s="6" t="s">
         <v>263</v>
       </c>
       <c r="C283" s="1" t="s">
@@ -18939,13 +19027,13 @@
       <c r="AB283" s="1">
         <v>71</v>
       </c>
-      <c r="AD283" s="5">
+      <c r="AD283" s="4">
         <v>44953</v>
       </c>
-      <c r="AG283" s="5">
+      <c r="AG283" s="4">
         <v>45086</v>
       </c>
-      <c r="AH283" s="5">
+      <c r="AH283" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -18953,7 +19041,7 @@
       <c r="A284" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B284" s="7" t="s">
+      <c r="B284" s="6" t="s">
         <v>263</v>
       </c>
       <c r="C284" s="1" t="s">
@@ -18992,13 +19080,13 @@
       <c r="AB284" s="1">
         <v>71</v>
       </c>
-      <c r="AD284" s="5">
+      <c r="AD284" s="4">
         <v>44953</v>
       </c>
-      <c r="AG284" s="5">
+      <c r="AG284" s="4">
         <v>45086</v>
       </c>
-      <c r="AH284" s="5">
+      <c r="AH284" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -19006,7 +19094,7 @@
       <c r="A285" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B285" s="7" t="s">
+      <c r="B285" s="6" t="s">
         <v>263</v>
       </c>
       <c r="C285" s="1" t="s">
@@ -19045,13 +19133,13 @@
       <c r="AB285" s="1">
         <v>51</v>
       </c>
-      <c r="AD285" s="5">
+      <c r="AD285" s="4">
         <v>44953</v>
       </c>
-      <c r="AG285" s="5">
+      <c r="AG285" s="4">
         <v>45086</v>
       </c>
-      <c r="AH285" s="5">
+      <c r="AH285" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -19059,7 +19147,7 @@
       <c r="A286" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B286" s="7" t="s">
+      <c r="B286" s="6" t="s">
         <v>263</v>
       </c>
       <c r="C286" s="1" t="s">
@@ -19098,13 +19186,13 @@
       <c r="AB286" s="1">
         <v>51</v>
       </c>
-      <c r="AD286" s="5">
+      <c r="AD286" s="4">
         <v>44953</v>
       </c>
-      <c r="AG286" s="5">
+      <c r="AG286" s="4">
         <v>45086</v>
       </c>
-      <c r="AH286" s="5">
+      <c r="AH286" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -19112,7 +19200,7 @@
       <c r="A287" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B287" s="7" t="s">
+      <c r="B287" s="6" t="s">
         <v>263</v>
       </c>
       <c r="C287" s="1" t="s">
@@ -19151,13 +19239,13 @@
       <c r="AB287" s="1">
         <v>51</v>
       </c>
-      <c r="AD287" s="5">
+      <c r="AD287" s="4">
         <v>44953</v>
       </c>
-      <c r="AG287" s="5">
+      <c r="AG287" s="4">
         <v>45086</v>
       </c>
-      <c r="AH287" s="5">
+      <c r="AH287" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -19165,7 +19253,7 @@
       <c r="A288" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B288" s="7" t="s">
+      <c r="B288" s="6" t="s">
         <v>263</v>
       </c>
       <c r="C288" s="1" t="s">
@@ -19204,13 +19292,13 @@
       <c r="AB288" s="1">
         <v>71</v>
       </c>
-      <c r="AD288" s="5">
+      <c r="AD288" s="4">
         <v>44953</v>
       </c>
-      <c r="AG288" s="5">
+      <c r="AG288" s="4">
         <v>45086</v>
       </c>
-      <c r="AH288" s="5">
+      <c r="AH288" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -19218,7 +19306,7 @@
       <c r="A289" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B289" s="7" t="s">
+      <c r="B289" s="6" t="s">
         <v>263</v>
       </c>
       <c r="C289" s="1" t="s">
@@ -19257,13 +19345,13 @@
       <c r="AB289" s="1">
         <v>51</v>
       </c>
-      <c r="AD289" s="5">
+      <c r="AD289" s="4">
         <v>44953</v>
       </c>
-      <c r="AG289" s="5">
+      <c r="AG289" s="4">
         <v>45086</v>
       </c>
-      <c r="AH289" s="5">
+      <c r="AH289" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -19271,7 +19359,7 @@
       <c r="A290" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B290" s="7" t="s">
+      <c r="B290" s="6" t="s">
         <v>263</v>
       </c>
       <c r="C290" s="1" t="s">
@@ -19310,13 +19398,13 @@
       <c r="AB290" s="1">
         <v>51</v>
       </c>
-      <c r="AD290" s="5">
+      <c r="AD290" s="4">
         <v>44953</v>
       </c>
-      <c r="AG290" s="5">
+      <c r="AG290" s="4">
         <v>45086</v>
       </c>
-      <c r="AH290" s="5">
+      <c r="AH290" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -19324,7 +19412,7 @@
       <c r="A291" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="B291" s="7" t="s">
+      <c r="B291" s="6" t="s">
         <v>263</v>
       </c>
       <c r="C291" s="1" t="s">
@@ -19363,13 +19451,13 @@
       <c r="AB291" s="1">
         <v>51</v>
       </c>
-      <c r="AD291" s="5">
+      <c r="AD291" s="4">
         <v>44953</v>
       </c>
-      <c r="AG291" s="5">
+      <c r="AG291" s="4">
         <v>45086</v>
       </c>
-      <c r="AH291" s="5">
+      <c r="AH291" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -19419,10 +19507,10 @@
       <c r="Y292" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z292" s="5">
+      <c r="Z292" s="4">
         <v>44830</v>
       </c>
-      <c r="AA292" s="5">
+      <c r="AA292" s="4">
         <v>44872</v>
       </c>
       <c r="AB292" s="1">
@@ -19478,10 +19566,10 @@
       <c r="Y293" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z293" s="5">
+      <c r="Z293" s="4">
         <v>44830</v>
       </c>
-      <c r="AA293" s="5">
+      <c r="AA293" s="4">
         <v>44872</v>
       </c>
       <c r="AB293" s="1">
@@ -19537,10 +19625,10 @@
       <c r="Y294" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z294" s="5">
+      <c r="Z294" s="4">
         <v>44830</v>
       </c>
-      <c r="AA294" s="5">
+      <c r="AA294" s="4">
         <v>44872</v>
       </c>
       <c r="AB294" s="1">
@@ -19596,10 +19684,10 @@
       <c r="Y295" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z295" s="5">
+      <c r="Z295" s="4">
         <v>44830</v>
       </c>
-      <c r="AA295" s="5">
+      <c r="AA295" s="4">
         <v>44872</v>
       </c>
       <c r="AB295" s="1">
@@ -19655,10 +19743,10 @@
       <c r="Y296" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z296" s="5">
+      <c r="Z296" s="4">
         <v>44830</v>
       </c>
-      <c r="AA296" s="5">
+      <c r="AA296" s="4">
         <v>44872</v>
       </c>
       <c r="AB296" s="1">
@@ -19714,10 +19802,10 @@
       <c r="Y297" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z297" s="5">
+      <c r="Z297" s="4">
         <v>44830</v>
       </c>
-      <c r="AA297" s="5">
+      <c r="AA297" s="4">
         <v>44872</v>
       </c>
       <c r="AB297" s="1">
@@ -19773,10 +19861,10 @@
       <c r="Y298" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z298" s="5">
+      <c r="Z298" s="4">
         <v>44830</v>
       </c>
-      <c r="AA298" s="5">
+      <c r="AA298" s="4">
         <v>44872</v>
       </c>
       <c r="AB298" s="1">
@@ -19832,10 +19920,10 @@
       <c r="Y299" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z299" s="5">
+      <c r="Z299" s="4">
         <v>44830</v>
       </c>
-      <c r="AA299" s="5">
+      <c r="AA299" s="4">
         <v>44872</v>
       </c>
       <c r="AB299" s="1">
@@ -19891,10 +19979,10 @@
       <c r="Y300" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z300" s="5">
+      <c r="Z300" s="4">
         <v>44830</v>
       </c>
-      <c r="AA300" s="5">
+      <c r="AA300" s="4">
         <v>44872</v>
       </c>
       <c r="AB300" s="1">
@@ -19950,10 +20038,10 @@
       <c r="Y301" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z301" s="5">
+      <c r="Z301" s="4">
         <v>44830</v>
       </c>
-      <c r="AA301" s="5">
+      <c r="AA301" s="4">
         <v>44872</v>
       </c>
       <c r="AB301" s="1">
@@ -20009,10 +20097,10 @@
       <c r="Y302" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z302" s="5">
+      <c r="Z302" s="4">
         <v>44830</v>
       </c>
-      <c r="AA302" s="5">
+      <c r="AA302" s="4">
         <v>44872</v>
       </c>
       <c r="AB302" s="1">
@@ -20068,10 +20156,10 @@
       <c r="Y303" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z303" s="5">
+      <c r="Z303" s="4">
         <v>44830</v>
       </c>
-      <c r="AA303" s="5">
+      <c r="AA303" s="4">
         <v>44872</v>
       </c>
       <c r="AB303" s="1">
@@ -20127,10 +20215,10 @@
       <c r="Y304" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z304" s="5">
+      <c r="Z304" s="4">
         <v>44830</v>
       </c>
-      <c r="AA304" s="5">
+      <c r="AA304" s="4">
         <v>44872</v>
       </c>
       <c r="AB304" s="1">
@@ -20186,10 +20274,10 @@
       <c r="Y305" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z305" s="5">
+      <c r="Z305" s="4">
         <v>44830</v>
       </c>
-      <c r="AA305" s="5">
+      <c r="AA305" s="4">
         <v>44872</v>
       </c>
       <c r="AB305" s="1">
@@ -20245,10 +20333,10 @@
       <c r="Y306" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z306" s="5">
+      <c r="Z306" s="4">
         <v>44830</v>
       </c>
-      <c r="AA306" s="5">
+      <c r="AA306" s="4">
         <v>44872</v>
       </c>
       <c r="AB306" s="1">
@@ -20304,10 +20392,10 @@
       <c r="Y307" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z307" s="5">
+      <c r="Z307" s="4">
         <v>44830</v>
       </c>
-      <c r="AA307" s="5">
+      <c r="AA307" s="4">
         <v>44872</v>
       </c>
       <c r="AB307" s="1">
@@ -20363,10 +20451,10 @@
       <c r="Y308" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z308" s="5">
+      <c r="Z308" s="4">
         <v>44830</v>
       </c>
-      <c r="AA308" s="5">
+      <c r="AA308" s="4">
         <v>44872</v>
       </c>
       <c r="AB308" s="1">
@@ -20422,10 +20510,10 @@
       <c r="Y309" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z309" s="5">
+      <c r="Z309" s="4">
         <v>44830</v>
       </c>
-      <c r="AA309" s="5">
+      <c r="AA309" s="4">
         <v>44872</v>
       </c>
       <c r="AB309" s="1">
@@ -20481,10 +20569,10 @@
       <c r="Y310" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z310" s="5">
+      <c r="Z310" s="4">
         <v>44830</v>
       </c>
-      <c r="AA310" s="5">
+      <c r="AA310" s="4">
         <v>44872</v>
       </c>
       <c r="AB310" s="1">
@@ -20540,10 +20628,10 @@
       <c r="Y311" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z311" s="5">
+      <c r="Z311" s="4">
         <v>44830</v>
       </c>
-      <c r="AA311" s="5">
+      <c r="AA311" s="4">
         <v>44872</v>
       </c>
       <c r="AB311" s="1">
@@ -20599,10 +20687,10 @@
       <c r="Y312" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z312" s="5">
+      <c r="Z312" s="4">
         <v>44830</v>
       </c>
-      <c r="AA312" s="5">
+      <c r="AA312" s="4">
         <v>44872</v>
       </c>
       <c r="AB312" s="1">
@@ -20658,10 +20746,10 @@
       <c r="Y313" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z313" s="5">
+      <c r="Z313" s="4">
         <v>44830</v>
       </c>
-      <c r="AA313" s="5">
+      <c r="AA313" s="4">
         <v>44872</v>
       </c>
       <c r="AB313" s="1">
@@ -20717,10 +20805,10 @@
       <c r="Y314" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z314" s="5">
+      <c r="Z314" s="4">
         <v>44830</v>
       </c>
-      <c r="AA314" s="5">
+      <c r="AA314" s="4">
         <v>44872</v>
       </c>
       <c r="AB314" s="1">
@@ -20776,10 +20864,10 @@
       <c r="Y315" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z315" s="5">
+      <c r="Z315" s="4">
         <v>44830</v>
       </c>
-      <c r="AA315" s="5">
+      <c r="AA315" s="4">
         <v>44872</v>
       </c>
       <c r="AB315" s="1">
@@ -20793,7 +20881,7 @@
       <c r="A316" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B316" s="7" t="s">
+      <c r="B316" s="6" t="s">
         <v>302</v>
       </c>
       <c r="C316" s="1" t="s">
@@ -20805,9 +20893,9 @@
       <c r="E316" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F316" s="5"/>
-      <c r="G316" s="5"/>
-      <c r="H316" s="5"/>
+      <c r="F316" s="4"/>
+      <c r="G316" s="4"/>
+      <c r="H316" s="4"/>
       <c r="J316" s="1" t="s">
         <v>268</v>
       </c>
@@ -20838,7 +20926,7 @@
       <c r="Y316" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z316" s="5">
+      <c r="Z316" s="4">
         <v>44963</v>
       </c>
       <c r="AB316" s="1">
@@ -20847,10 +20935,10 @@
       <c r="AC316" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="AD316" s="5">
+      <c r="AD316" s="4">
         <v>44953</v>
       </c>
-      <c r="AE316" s="5">
+      <c r="AE316" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -20858,7 +20946,7 @@
       <c r="A317" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B317" s="7" t="s">
+      <c r="B317" s="6" t="s">
         <v>302</v>
       </c>
       <c r="C317" s="1" t="s">
@@ -20870,9 +20958,9 @@
       <c r="E317" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F317" s="5"/>
-      <c r="G317" s="5"/>
-      <c r="H317" s="5"/>
+      <c r="F317" s="4"/>
+      <c r="G317" s="4"/>
+      <c r="H317" s="4"/>
       <c r="J317" s="1" t="s">
         <v>270</v>
       </c>
@@ -20903,7 +20991,7 @@
       <c r="Y317" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z317" s="5">
+      <c r="Z317" s="4">
         <v>44963</v>
       </c>
       <c r="AB317" s="1">
@@ -20912,10 +21000,10 @@
       <c r="AC317" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="AD317" s="5">
+      <c r="AD317" s="4">
         <v>44953</v>
       </c>
-      <c r="AE317" s="5">
+      <c r="AE317" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -20923,7 +21011,7 @@
       <c r="A318" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B318" s="7" t="s">
+      <c r="B318" s="6" t="s">
         <v>302</v>
       </c>
       <c r="C318" s="1" t="s">
@@ -20935,9 +21023,9 @@
       <c r="E318" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F318" s="5"/>
-      <c r="G318" s="5"/>
-      <c r="H318" s="5"/>
+      <c r="F318" s="4"/>
+      <c r="G318" s="4"/>
+      <c r="H318" s="4"/>
       <c r="J318" s="1" t="s">
         <v>267</v>
       </c>
@@ -20968,7 +21056,7 @@
       <c r="Y318" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z318" s="5">
+      <c r="Z318" s="4">
         <v>44963</v>
       </c>
       <c r="AB318" s="1">
@@ -20977,10 +21065,10 @@
       <c r="AC318" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="AD318" s="5">
+      <c r="AD318" s="4">
         <v>44953</v>
       </c>
-      <c r="AE318" s="5">
+      <c r="AE318" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -20988,7 +21076,7 @@
       <c r="A319" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B319" s="7" t="s">
+      <c r="B319" s="6" t="s">
         <v>302</v>
       </c>
       <c r="C319" s="1" t="s">
@@ -21000,9 +21088,9 @@
       <c r="E319" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F319" s="5"/>
-      <c r="G319" s="5"/>
-      <c r="H319" s="5"/>
+      <c r="F319" s="4"/>
+      <c r="G319" s="4"/>
+      <c r="H319" s="4"/>
       <c r="J319" s="1" t="s">
         <v>266</v>
       </c>
@@ -21033,7 +21121,7 @@
       <c r="Y319" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z319" s="5">
+      <c r="Z319" s="4">
         <v>44963</v>
       </c>
       <c r="AB319" s="1">
@@ -21042,10 +21130,10 @@
       <c r="AC319" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="AD319" s="5">
+      <c r="AD319" s="4">
         <v>44953</v>
       </c>
-      <c r="AE319" s="5">
+      <c r="AE319" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -21053,7 +21141,7 @@
       <c r="A320" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B320" s="7" t="s">
+      <c r="B320" s="6" t="s">
         <v>302</v>
       </c>
       <c r="C320" s="1" t="s">
@@ -21065,9 +21153,9 @@
       <c r="E320" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F320" s="5"/>
-      <c r="G320" s="5"/>
-      <c r="H320" s="5"/>
+      <c r="F320" s="4"/>
+      <c r="G320" s="4"/>
+      <c r="H320" s="4"/>
       <c r="J320" s="1" t="s">
         <v>271</v>
       </c>
@@ -21098,7 +21186,7 @@
       <c r="Y320" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z320" s="5">
+      <c r="Z320" s="4">
         <v>44963</v>
       </c>
       <c r="AB320" s="1">
@@ -21107,10 +21195,10 @@
       <c r="AC320" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="AD320" s="5">
+      <c r="AD320" s="4">
         <v>44953</v>
       </c>
-      <c r="AE320" s="5">
+      <c r="AE320" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -21118,7 +21206,7 @@
       <c r="A321" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B321" s="7" t="s">
+      <c r="B321" s="6" t="s">
         <v>302</v>
       </c>
       <c r="C321" s="1" t="s">
@@ -21130,9 +21218,9 @@
       <c r="E321" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="F321" s="5"/>
-      <c r="G321" s="5"/>
-      <c r="H321" s="5"/>
+      <c r="F321" s="4"/>
+      <c r="G321" s="4"/>
+      <c r="H321" s="4"/>
       <c r="J321" s="1" t="s">
         <v>265</v>
       </c>
@@ -21163,7 +21251,7 @@
       <c r="Y321" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z321" s="5">
+      <c r="Z321" s="4">
         <v>44963</v>
       </c>
       <c r="AB321" s="1">
@@ -21172,10 +21260,10 @@
       <c r="AC321" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="AD321" s="5">
+      <c r="AD321" s="4">
         <v>44953</v>
       </c>
-      <c r="AE321" s="5">
+      <c r="AE321" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -21183,7 +21271,7 @@
       <c r="A322" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B322" s="7" t="s">
+      <c r="B322" s="6" t="s">
         <v>302</v>
       </c>
       <c r="C322" s="1" t="s">
@@ -21195,9 +21283,9 @@
       <c r="E322" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F322" s="5"/>
-      <c r="G322" s="5"/>
-      <c r="H322" s="5"/>
+      <c r="F322" s="4"/>
+      <c r="G322" s="4"/>
+      <c r="H322" s="4"/>
       <c r="J322" s="1" t="s">
         <v>269</v>
       </c>
@@ -21228,7 +21316,7 @@
       <c r="Y322" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z322" s="5">
+      <c r="Z322" s="4">
         <v>44963</v>
       </c>
       <c r="AB322" s="1">
@@ -21237,10 +21325,10 @@
       <c r="AC322" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="AD322" s="5">
+      <c r="AD322" s="4">
         <v>44953</v>
       </c>
-      <c r="AE322" s="5">
+      <c r="AE322" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -21248,7 +21336,7 @@
       <c r="A323" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B323" s="7" t="s">
+      <c r="B323" s="6" t="s">
         <v>302</v>
       </c>
       <c r="C323" s="1" t="s">
@@ -21260,9 +21348,9 @@
       <c r="E323" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F323" s="5"/>
-      <c r="G323" s="5"/>
-      <c r="H323" s="5"/>
+      <c r="F323" s="4"/>
+      <c r="G323" s="4"/>
+      <c r="H323" s="4"/>
       <c r="J323" s="1" t="s">
         <v>272</v>
       </c>
@@ -21293,7 +21381,7 @@
       <c r="Y323" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z323" s="5">
+      <c r="Z323" s="4">
         <v>44963</v>
       </c>
       <c r="AB323" s="1">
@@ -21302,10 +21390,10 @@
       <c r="AC323" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="AD323" s="5">
+      <c r="AD323" s="4">
         <v>44953</v>
       </c>
-      <c r="AE323" s="5">
+      <c r="AE323" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -21313,7 +21401,7 @@
       <c r="A324" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B324" s="7" t="s">
+      <c r="B324" s="6" t="s">
         <v>302</v>
       </c>
       <c r="C324" s="1" t="s">
@@ -21325,9 +21413,9 @@
       <c r="E324" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="F324" s="5"/>
-      <c r="G324" s="5"/>
-      <c r="H324" s="5"/>
+      <c r="F324" s="4"/>
+      <c r="G324" s="4"/>
+      <c r="H324" s="4"/>
       <c r="J324" s="1" t="s">
         <v>273</v>
       </c>
@@ -21358,7 +21446,7 @@
       <c r="Y324" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="Z324" s="5">
+      <c r="Z324" s="4">
         <v>44963</v>
       </c>
       <c r="AB324" s="1">
@@ -21367,10 +21455,10 @@
       <c r="AC324" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="AD324" s="5">
+      <c r="AD324" s="4">
         <v>44953</v>
       </c>
-      <c r="AE324" s="5">
+      <c r="AE324" s="4">
         <v>45138</v>
       </c>
     </row>
@@ -21414,13 +21502,13 @@
       <c r="Y325" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA325" s="5">
+      <c r="AA325" s="4">
         <v>44627</v>
       </c>
       <c r="AB325" s="1">
         <v>71</v>
       </c>
-      <c r="AD325" s="5">
+      <c r="AD325" s="4">
         <v>44806</v>
       </c>
       <c r="AR325" s="1">
@@ -21460,7 +21548,7 @@
       <c r="A327" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B327" s="4" t="s">
+      <c r="B327" s="3" t="s">
         <v>309</v>
       </c>
       <c r="C327" s="1" t="s">
@@ -21499,10 +21587,10 @@
       <c r="AB327" s="1">
         <v>61</v>
       </c>
-      <c r="AD327" s="5">
+      <c r="AD327" s="4">
         <v>44953</v>
       </c>
-      <c r="AQ327" s="5">
+      <c r="AQ327" s="4">
         <v>44963</v>
       </c>
     </row>
@@ -21510,7 +21598,7 @@
       <c r="A328" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B328" s="4" t="s">
+      <c r="B328" s="3" t="s">
         <v>309</v>
       </c>
       <c r="C328" s="1" t="s">
@@ -21549,10 +21637,10 @@
       <c r="AB328" s="1">
         <v>61</v>
       </c>
-      <c r="AD328" s="5">
+      <c r="AD328" s="4">
         <v>44953</v>
       </c>
-      <c r="AQ328" s="5">
+      <c r="AQ328" s="4">
         <v>44963</v>
       </c>
     </row>
@@ -21560,7 +21648,7 @@
       <c r="A329" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B329" s="4" t="s">
+      <c r="B329" s="3" t="s">
         <v>309</v>
       </c>
       <c r="C329" s="1" t="s">
@@ -21599,10 +21687,10 @@
       <c r="AB329" s="1">
         <v>61</v>
       </c>
-      <c r="AD329" s="5">
+      <c r="AD329" s="4">
         <v>44953</v>
       </c>
-      <c r="AQ329" s="5">
+      <c r="AQ329" s="4">
         <v>44963</v>
       </c>
     </row>
@@ -21610,7 +21698,7 @@
       <c r="A330" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B330" s="3" t="s">
+      <c r="B330" s="11" t="s">
         <v>313</v>
       </c>
       <c r="C330" s="1" t="s">
@@ -21622,10 +21710,10 @@
       <c r="J330" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="CU330" s="5">
+      <c r="CU330" s="4">
         <v>45194</v>
       </c>
-      <c r="CV330" s="5">
+      <c r="CV330" s="4">
         <v>44891</v>
       </c>
       <c r="CW330" s="1" t="s">
@@ -21639,7 +21727,7 @@
       <c r="A331" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="B331" s="3" t="s">
+      <c r="B331" s="11" t="s">
         <v>313</v>
       </c>
       <c r="C331" s="1" t="s">
@@ -21651,10 +21739,10 @@
       <c r="J331" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="CU331" s="5">
+      <c r="CU331" s="4">
         <v>45327</v>
       </c>
-      <c r="CV331" s="5">
+      <c r="CV331" s="4">
         <v>45079</v>
       </c>
       <c r="CW331" s="1" t="s">
@@ -21668,7 +21756,7 @@
       <c r="A332" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B332" s="4" t="s">
+      <c r="B332" s="3" t="s">
         <v>317</v>
       </c>
       <c r="C332" s="1" t="s">
@@ -21692,10 +21780,10 @@
       <c r="W332" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AI332" s="5">
+      <c r="AI332" s="4">
         <v>34837</v>
       </c>
-      <c r="AJ332" s="5">
+      <c r="AJ332" s="4">
         <v>31185</v>
       </c>
     </row>
@@ -21703,7 +21791,7 @@
       <c r="A333" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B333" s="3" t="s">
+      <c r="B333" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C333" s="1" t="s">
@@ -21756,7 +21844,7 @@
       <c r="A334" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B334" s="3" t="s">
+      <c r="B334" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C334" s="1" t="s">
@@ -21809,7 +21897,7 @@
       <c r="A335" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B335" s="3" t="s">
+      <c r="B335" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C335" s="1" t="s">
@@ -21862,7 +21950,7 @@
       <c r="A336" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B336" s="3" t="s">
+      <c r="B336" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C336" s="1" t="s">
@@ -21915,7 +22003,7 @@
       <c r="A337" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B337" s="3" t="s">
+      <c r="B337" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C337" s="1" t="s">
@@ -21968,7 +22056,7 @@
       <c r="A338" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B338" s="3" t="s">
+      <c r="B338" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C338" s="1" t="s">
@@ -22021,7 +22109,7 @@
       <c r="A339" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B339" s="3" t="s">
+      <c r="B339" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C339" s="1" t="s">
@@ -22074,7 +22162,7 @@
       <c r="A340" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B340" s="3" t="s">
+      <c r="B340" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C340" s="1" t="s">
@@ -22127,7 +22215,7 @@
       <c r="A341" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B341" s="3" t="s">
+      <c r="B341" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C341" s="1" t="s">
@@ -22180,7 +22268,7 @@
       <c r="A342" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B342" s="3" t="s">
+      <c r="B342" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C342" s="1" t="s">
@@ -22233,7 +22321,7 @@
       <c r="A343" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B343" s="3" t="s">
+      <c r="B343" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C343" s="1" t="s">
@@ -22286,7 +22374,7 @@
       <c r="A344" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B344" s="3" t="s">
+      <c r="B344" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C344" s="1" t="s">
@@ -22339,7 +22427,7 @@
       <c r="A345" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B345" s="3" t="s">
+      <c r="B345" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C345" s="1" t="s">
@@ -22392,7 +22480,7 @@
       <c r="A346" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B346" s="3" t="s">
+      <c r="B346" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C346" s="1" t="s">
@@ -22445,7 +22533,7 @@
       <c r="A347" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B347" s="3" t="s">
+      <c r="B347" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C347" s="1" t="s">
@@ -22498,7 +22586,7 @@
       <c r="A348" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B348" s="3" t="s">
+      <c r="B348" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C348" s="1" t="s">
@@ -22551,7 +22639,7 @@
       <c r="A349" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B349" s="3" t="s">
+      <c r="B349" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C349" s="1" t="s">
@@ -22604,7 +22692,7 @@
       <c r="A350" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B350" s="3" t="s">
+      <c r="B350" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C350" s="1" t="s">
@@ -22657,7 +22745,7 @@
       <c r="A351" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B351" s="3" t="s">
+      <c r="B351" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C351" s="1" t="s">
@@ -22710,7 +22798,7 @@
       <c r="A352" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B352" s="3" t="s">
+      <c r="B352" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C352" s="1" t="s">
@@ -22763,7 +22851,7 @@
       <c r="A353" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B353" s="3" t="s">
+      <c r="B353" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C353" s="1" t="s">
@@ -22816,7 +22904,7 @@
       <c r="A354" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B354" s="3" t="s">
+      <c r="B354" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C354" s="1" t="s">
@@ -22869,7 +22957,7 @@
       <c r="A355" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B355" s="3" t="s">
+      <c r="B355" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C355" s="1" t="s">
@@ -22922,7 +23010,7 @@
       <c r="A356" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B356" s="3" t="s">
+      <c r="B356" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C356" s="1" t="s">
@@ -22975,7 +23063,7 @@
       <c r="A357" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B357" s="3" t="s">
+      <c r="B357" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C357" s="1" t="s">
@@ -23028,7 +23116,7 @@
       <c r="A358" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B358" s="3" t="s">
+      <c r="B358" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C358" s="1" t="s">
@@ -23081,7 +23169,7 @@
       <c r="A359" s="1" t="s">
         <v>319</v>
       </c>
-      <c r="B359" s="3" t="s">
+      <c r="B359" s="11" t="s">
         <v>320</v>
       </c>
       <c r="C359" s="1" t="s">
@@ -23134,7 +23222,7 @@
       <c r="A360" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B360" s="4" t="s">
+      <c r="B360" s="3" t="s">
         <v>322</v>
       </c>
       <c r="C360" s="1" t="s">
@@ -23364,7 +23452,7 @@
       <c r="A367" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B367" s="4" t="s">
+      <c r="B367" s="3" t="s">
         <v>332</v>
       </c>
       <c r="C367" s="1" t="s">
@@ -23376,7 +23464,7 @@
       <c r="J367" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="P367" s="5">
+      <c r="P367" s="4">
         <v>44627</v>
       </c>
       <c r="Q367" s="1" t="s">
@@ -23391,7 +23479,7 @@
       <c r="T367" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U367" s="5">
+      <c r="U367" s="4">
         <v>44627</v>
       </c>
       <c r="V367" s="1" t="s">
@@ -23411,7 +23499,7 @@
       <c r="A368" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B368" s="4" t="s">
+      <c r="B368" s="3" t="s">
         <v>332</v>
       </c>
       <c r="C368" s="1" t="s">
@@ -23423,7 +23511,7 @@
       <c r="J368" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="P368" s="5">
+      <c r="P368" s="4">
         <v>44627</v>
       </c>
       <c r="Q368" s="1" t="s">
@@ -23438,7 +23526,7 @@
       <c r="T368" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U368" s="5">
+      <c r="U368" s="4">
         <v>44627</v>
       </c>
       <c r="V368" s="1" t="s">
@@ -23458,7 +23546,7 @@
       <c r="A369" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B369" s="4" t="s">
+      <c r="B369" s="3" t="s">
         <v>332</v>
       </c>
       <c r="C369" s="1" t="s">
@@ -23470,7 +23558,7 @@
       <c r="J369" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P369" s="5">
+      <c r="P369" s="4">
         <v>44627</v>
       </c>
       <c r="Q369" s="1" t="s">
@@ -23485,7 +23573,7 @@
       <c r="T369" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U369" s="5">
+      <c r="U369" s="4">
         <v>44627</v>
       </c>
       <c r="V369" s="1" t="s">
@@ -23505,7 +23593,7 @@
       <c r="A370" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B370" s="3" t="s">
+      <c r="B370" s="10" t="s">
         <v>335</v>
       </c>
       <c r="C370" s="1" t="s">
@@ -23537,7 +23625,7 @@
       <c r="A371" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B371" s="3" t="s">
+      <c r="B371" s="10" t="s">
         <v>335</v>
       </c>
       <c r="C371" s="1" t="s">
@@ -23569,7 +23657,7 @@
       <c r="A372" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B372" s="3" t="s">
+      <c r="B372" s="10" t="s">
         <v>335</v>
       </c>
       <c r="C372" s="1" t="s">
@@ -23601,7 +23689,7 @@
       <c r="A373" s="1" t="s">
         <v>334</v>
       </c>
-      <c r="B373" s="3" t="s">
+      <c r="B373" s="10" t="s">
         <v>335</v>
       </c>
       <c r="C373" s="1" t="s">
@@ -23975,7 +24063,7 @@
       <c r="A383" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="B383" s="3" t="s">
+      <c r="B383" s="10" t="s">
         <v>361</v>
       </c>
       <c r="C383" s="1" t="s">
@@ -24034,7 +24122,7 @@
       </c>
     </row>
     <row r="384" spans="1:83" ht="15" x14ac:dyDescent="0.2">
-      <c r="A384" s="6" t="s">
+      <c r="A384" s="5" t="s">
         <v>364</v>
       </c>
       <c r="B384" s="2" t="s">
@@ -24123,7 +24211,7 @@
       </c>
     </row>
     <row r="385" spans="1:105" ht="15" x14ac:dyDescent="0.2">
-      <c r="A385" s="6" t="s">
+      <c r="A385" s="5" t="s">
         <v>367</v>
       </c>
       <c r="B385" s="2" t="s">
@@ -24257,13 +24345,13 @@
       <c r="Y386" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA386" s="5">
+      <c r="AA386" s="4">
         <v>44830</v>
       </c>
       <c r="AB386" s="1">
         <v>61</v>
       </c>
-      <c r="AD386" s="5">
+      <c r="AD386" s="4">
         <v>44953</v>
       </c>
       <c r="BN386" s="1">
@@ -24328,13 +24416,13 @@
       <c r="Y387" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA387" s="5">
+      <c r="AA387" s="4">
         <v>44830</v>
       </c>
       <c r="AB387" s="1">
         <v>61</v>
       </c>
-      <c r="AD387" s="5">
+      <c r="AD387" s="4">
         <v>44953</v>
       </c>
       <c r="BN387" s="1">
@@ -24399,13 +24487,13 @@
       <c r="Y388" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA388" s="5">
+      <c r="AA388" s="4">
         <v>44830</v>
       </c>
       <c r="AB388" s="1">
         <v>61</v>
       </c>
-      <c r="AD388" s="5">
+      <c r="AD388" s="4">
         <v>44953</v>
       </c>
       <c r="BN388" s="1">
@@ -24428,7 +24516,7 @@
       <c r="A389" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B389" s="4" t="s">
+      <c r="B389" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C389" s="1" t="s">
@@ -24473,13 +24561,13 @@
       <c r="AB389" s="1">
         <v>71</v>
       </c>
-      <c r="AD389" s="5">
+      <c r="AD389" s="4">
         <v>44953</v>
       </c>
-      <c r="CU389" s="5">
+      <c r="CU389" s="4">
         <v>45327</v>
       </c>
-      <c r="CV389" s="5">
+      <c r="CV389" s="4">
         <v>44963</v>
       </c>
       <c r="CW389" s="1" t="s">
@@ -24490,7 +24578,7 @@
       <c r="A390" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B390" s="4" t="s">
+      <c r="B390" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C390" s="1" t="s">
@@ -24535,13 +24623,13 @@
       <c r="AB390" s="1">
         <v>71</v>
       </c>
-      <c r="AD390" s="5">
+      <c r="AD390" s="4">
         <v>44953</v>
       </c>
-      <c r="CU390" s="5">
+      <c r="CU390" s="4">
         <v>45327</v>
       </c>
-      <c r="CV390" s="5">
+      <c r="CV390" s="4">
         <v>44963</v>
       </c>
       <c r="CW390" s="1" t="s">
@@ -24552,7 +24640,7 @@
       <c r="A391" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B391" s="4" t="s">
+      <c r="B391" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C391" s="1" t="s">
@@ -24597,13 +24685,13 @@
       <c r="AB391" s="1">
         <v>71</v>
       </c>
-      <c r="AD391" s="5">
+      <c r="AD391" s="4">
         <v>44953</v>
       </c>
-      <c r="CU391" s="5">
+      <c r="CU391" s="4">
         <v>45327</v>
       </c>
-      <c r="CV391" s="5">
+      <c r="CV391" s="4">
         <v>44963</v>
       </c>
       <c r="CW391" s="1" t="s">
@@ -24659,13 +24747,13 @@
       <c r="AB392" s="1">
         <v>51</v>
       </c>
-      <c r="AD392" s="5">
+      <c r="AD392" s="4">
         <v>44953</v>
       </c>
-      <c r="CU392" s="5">
+      <c r="CU392" s="4">
         <v>45327</v>
       </c>
-      <c r="CV392" s="5">
+      <c r="CV392" s="4">
         <v>45079</v>
       </c>
       <c r="CW392" s="1" t="s">
@@ -24721,13 +24809,13 @@
       <c r="AB393" s="1">
         <v>51</v>
       </c>
-      <c r="AD393" s="5">
+      <c r="AD393" s="4">
         <v>44953</v>
       </c>
-      <c r="CU393" s="5">
+      <c r="CU393" s="4">
         <v>45327</v>
       </c>
-      <c r="CV393" s="5">
+      <c r="CV393" s="4">
         <v>45079</v>
       </c>
       <c r="CW393" s="1" t="s">
@@ -24738,7 +24826,7 @@
       <c r="A394" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B394" s="4" t="s">
+      <c r="B394" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C394" s="1" t="s">
@@ -24783,13 +24871,13 @@
       <c r="AB394" s="1">
         <v>61</v>
       </c>
-      <c r="AD394" s="5">
+      <c r="AD394" s="4">
         <v>44953</v>
       </c>
-      <c r="CU394" s="5">
+      <c r="CU394" s="4">
         <v>45327</v>
       </c>
-      <c r="CV394" s="5">
+      <c r="CV394" s="4">
         <v>45079</v>
       </c>
       <c r="CW394" s="1" t="s">
@@ -24800,7 +24888,7 @@
       <c r="A395" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B395" s="4" t="s">
+      <c r="B395" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C395" s="1" t="s">
@@ -24845,13 +24933,13 @@
       <c r="AB395" s="1">
         <v>61</v>
       </c>
-      <c r="AD395" s="5">
+      <c r="AD395" s="4">
         <v>44953</v>
       </c>
-      <c r="CU395" s="5">
+      <c r="CU395" s="4">
         <v>45327</v>
       </c>
-      <c r="CV395" s="5">
+      <c r="CV395" s="4">
         <v>45079</v>
       </c>
       <c r="CW395" s="1" t="s">
@@ -24862,7 +24950,7 @@
       <c r="A396" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B396" s="4" t="s">
+      <c r="B396" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C396" s="1" t="s">
@@ -24907,13 +24995,13 @@
       <c r="AB396" s="1">
         <v>61</v>
       </c>
-      <c r="AD396" s="5">
+      <c r="AD396" s="4">
         <v>44953</v>
       </c>
-      <c r="CU396" s="5">
+      <c r="CU396" s="4">
         <v>45327</v>
       </c>
-      <c r="CV396" s="5">
+      <c r="CV396" s="4">
         <v>45079</v>
       </c>
       <c r="CW396" s="1" t="s">
@@ -24924,7 +25012,7 @@
       <c r="A397" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B397" s="4" t="s">
+      <c r="B397" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C397" s="1" t="s">
@@ -24969,13 +25057,13 @@
       <c r="AB397" s="1">
         <v>61</v>
       </c>
-      <c r="AD397" s="5">
+      <c r="AD397" s="4">
         <v>44953</v>
       </c>
-      <c r="CU397" s="5">
+      <c r="CU397" s="4">
         <v>45327</v>
       </c>
-      <c r="CV397" s="5">
+      <c r="CV397" s="4">
         <v>45079</v>
       </c>
       <c r="CW397" s="1" t="s">
@@ -24986,7 +25074,7 @@
       <c r="A398" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B398" s="4" t="s">
+      <c r="B398" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C398" s="1" t="s">
@@ -25031,13 +25119,13 @@
       <c r="AB398" s="1">
         <v>61</v>
       </c>
-      <c r="AD398" s="5">
+      <c r="AD398" s="4">
         <v>44953</v>
       </c>
-      <c r="CU398" s="5">
+      <c r="CU398" s="4">
         <v>45327</v>
       </c>
-      <c r="CV398" s="5">
+      <c r="CV398" s="4">
         <v>45079</v>
       </c>
       <c r="CW398" s="1" t="s">
@@ -25048,7 +25136,7 @@
       <c r="A399" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B399" s="4" t="s">
+      <c r="B399" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C399" s="1" t="s">
@@ -25093,13 +25181,13 @@
       <c r="AB399" s="1">
         <v>61</v>
       </c>
-      <c r="AD399" s="5">
+      <c r="AD399" s="4">
         <v>44953</v>
       </c>
-      <c r="CU399" s="5">
+      <c r="CU399" s="4">
         <v>45327</v>
       </c>
-      <c r="CV399" s="5">
+      <c r="CV399" s="4">
         <v>45079</v>
       </c>
       <c r="CW399" s="1" t="s">
@@ -25110,7 +25198,7 @@
       <c r="A400" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B400" s="4" t="s">
+      <c r="B400" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C400" s="1" t="s">
@@ -25155,13 +25243,13 @@
       <c r="AB400" s="1">
         <v>61</v>
       </c>
-      <c r="AD400" s="5">
+      <c r="AD400" s="4">
         <v>44953</v>
       </c>
-      <c r="CU400" s="5">
+      <c r="CU400" s="4">
         <v>45327</v>
       </c>
-      <c r="CV400" s="5">
+      <c r="CV400" s="4">
         <v>45079</v>
       </c>
       <c r="CW400" s="1" t="s">
@@ -25172,7 +25260,7 @@
       <c r="A401" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B401" s="4" t="s">
+      <c r="B401" s="3" t="s">
         <v>371</v>
       </c>
       <c r="C401" s="1" t="s">
@@ -25217,13 +25305,13 @@
       <c r="AB401" s="1">
         <v>61</v>
       </c>
-      <c r="AD401" s="5">
+      <c r="AD401" s="4">
         <v>44953</v>
       </c>
-      <c r="CU401" s="5">
+      <c r="CU401" s="4">
         <v>45327</v>
       </c>
-      <c r="CV401" s="5">
+      <c r="CV401" s="4">
         <v>45079</v>
       </c>
       <c r="CW401" s="1" t="s">
@@ -25273,7 +25361,7 @@
       <c r="AB402" s="1">
         <v>51</v>
       </c>
-      <c r="AD402" s="5">
+      <c r="AD402" s="4">
         <v>44953</v>
       </c>
       <c r="BN402" s="1">
@@ -25338,7 +25426,7 @@
       <c r="AB403" s="1">
         <v>51</v>
       </c>
-      <c r="AD403" s="5">
+      <c r="AD403" s="4">
         <v>44953</v>
       </c>
       <c r="BN403" s="1">
@@ -25406,13 +25494,13 @@
       <c r="Y404" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA404" s="5">
+      <c r="AA404" s="4">
         <v>44830</v>
       </c>
       <c r="AB404" s="1">
         <v>61</v>
       </c>
-      <c r="AD404" s="5">
+      <c r="AD404" s="4">
         <v>44953</v>
       </c>
       <c r="BN404" s="1">
@@ -25474,13 +25562,13 @@
       <c r="Y405" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA405" s="5">
+      <c r="AA405" s="4">
         <v>44830</v>
       </c>
       <c r="AB405" s="1">
         <v>61</v>
       </c>
-      <c r="AD405" s="5">
+      <c r="AD405" s="4">
         <v>44953</v>
       </c>
       <c r="BN405" s="1">
@@ -25542,13 +25630,13 @@
       <c r="Y406" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA406" s="5">
+      <c r="AA406" s="4">
         <v>44830</v>
       </c>
       <c r="AB406" s="1">
         <v>61</v>
       </c>
-      <c r="AD406" s="5">
+      <c r="AD406" s="4">
         <v>44953</v>
       </c>
       <c r="BN406" s="1">
@@ -25610,13 +25698,13 @@
       <c r="Y407" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA407" s="5">
+      <c r="AA407" s="4">
         <v>44872</v>
       </c>
       <c r="AB407" s="1">
         <v>41</v>
       </c>
-      <c r="CV407" s="5">
+      <c r="CV407" s="4">
         <v>44830</v>
       </c>
     </row>
@@ -25666,13 +25754,13 @@
       <c r="Y408" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA408" s="5">
+      <c r="AA408" s="4">
         <v>44872</v>
       </c>
       <c r="AB408" s="1">
         <v>41</v>
       </c>
-      <c r="CV408" s="5">
+      <c r="CV408" s="4">
         <v>44830</v>
       </c>
     </row>
@@ -25722,13 +25810,13 @@
       <c r="Y409" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA409" s="5">
+      <c r="AA409" s="4">
         <v>44872</v>
       </c>
       <c r="AB409" s="1">
         <v>41</v>
       </c>
-      <c r="CV409" s="5">
+      <c r="CV409" s="4">
         <v>44830</v>
       </c>
     </row>
@@ -25778,13 +25866,13 @@
       <c r="Y410" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA410" s="5">
+      <c r="AA410" s="4">
         <v>44872</v>
       </c>
       <c r="AB410" s="1">
         <v>71</v>
       </c>
-      <c r="CV410" s="5">
+      <c r="CV410" s="4">
         <v>44830</v>
       </c>
     </row>
@@ -25834,13 +25922,13 @@
       <c r="Y411" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA411" s="5">
+      <c r="AA411" s="4">
         <v>44872</v>
       </c>
       <c r="AB411" s="1">
         <v>41</v>
       </c>
-      <c r="CV411" s="5">
+      <c r="CV411" s="4">
         <v>44830</v>
       </c>
     </row>
@@ -25890,13 +25978,13 @@
       <c r="Y412" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA412" s="5">
+      <c r="AA412" s="4">
         <v>44872</v>
       </c>
       <c r="AB412" s="1">
         <v>41</v>
       </c>
-      <c r="CV412" s="5">
+      <c r="CV412" s="4">
         <v>44830</v>
       </c>
     </row>
@@ -25946,13 +26034,13 @@
       <c r="Y413" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA413" s="5">
+      <c r="AA413" s="4">
         <v>44872</v>
       </c>
       <c r="AB413" s="1">
         <v>71</v>
       </c>
-      <c r="CV413" s="5">
+      <c r="CV413" s="4">
         <v>44830</v>
       </c>
     </row>
@@ -26002,13 +26090,13 @@
       <c r="Y414" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="AA414" s="5">
+      <c r="AA414" s="4">
         <v>44872</v>
       </c>
       <c r="AB414" s="1">
         <v>71</v>
       </c>
-      <c r="CV414" s="5">
+      <c r="CV414" s="4">
         <v>44830</v>
       </c>
     </row>
@@ -26016,7 +26104,7 @@
       <c r="A415" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B415" s="4" t="s">
+      <c r="B415" s="3" t="s">
         <v>392</v>
       </c>
       <c r="C415" s="1" t="s">
@@ -26101,7 +26189,7 @@
       <c r="A417" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B417" s="3" t="s">
+      <c r="B417" s="10" t="s">
         <v>398</v>
       </c>
       <c r="C417" s="1" t="s">
@@ -26157,7 +26245,7 @@
       <c r="A418" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B418" s="3" t="s">
+      <c r="B418" s="10" t="s">
         <v>398</v>
       </c>
       <c r="C418" s="1" t="s">
@@ -26213,7 +26301,7 @@
       <c r="A419" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B419" s="3" t="s">
+      <c r="B419" s="10" t="s">
         <v>398</v>
       </c>
       <c r="C419" s="1" t="s">
@@ -26269,7 +26357,7 @@
       <c r="A420" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B420" s="3" t="s">
+      <c r="B420" s="10" t="s">
         <v>398</v>
       </c>
       <c r="C420" s="1" t="s">
@@ -26325,7 +26413,7 @@
       <c r="A421" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B421" s="3" t="s">
+      <c r="B421" s="10" t="s">
         <v>398</v>
       </c>
       <c r="C421" s="1" t="s">
@@ -26381,7 +26469,7 @@
       <c r="A422" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B422" s="3" t="s">
+      <c r="B422" s="10" t="s">
         <v>398</v>
       </c>
       <c r="C422" s="1" t="s">
@@ -26437,7 +26525,7 @@
       <c r="A423" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B423" s="3" t="s">
+      <c r="B423" s="10" t="s">
         <v>398</v>
       </c>
       <c r="C423" s="1" t="s">
@@ -26493,7 +26581,7 @@
       <c r="A424" s="1" t="s">
         <v>397</v>
       </c>
-      <c r="B424" s="3" t="s">
+      <c r="B424" s="10" t="s">
         <v>398</v>
       </c>
       <c r="C424" s="1" t="s">
@@ -26561,7 +26649,7 @@
       <c r="J425" s="1">
         <v>61</v>
       </c>
-      <c r="P425" s="5">
+      <c r="P425" s="4">
         <v>44466</v>
       </c>
       <c r="Q425" s="1">
@@ -26576,7 +26664,7 @@
       <c r="T425" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U425" s="5">
+      <c r="U425" s="4">
         <v>44466</v>
       </c>
       <c r="V425" s="1">
@@ -26600,7 +26688,7 @@
       <c r="AN425" s="1">
         <v>2</v>
       </c>
-      <c r="AO425" s="5">
+      <c r="AO425" s="4">
         <v>45086</v>
       </c>
     </row>
@@ -26620,7 +26708,7 @@
       <c r="J426" s="1">
         <v>61</v>
       </c>
-      <c r="P426" s="5">
+      <c r="P426" s="4">
         <v>44627</v>
       </c>
       <c r="Q426" s="1">
@@ -26635,7 +26723,7 @@
       <c r="T426" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="U426" s="5">
+      <c r="U426" s="4">
         <v>44627</v>
       </c>
       <c r="V426" s="1">
@@ -26659,12 +26747,12 @@
       <c r="AN426" s="1">
         <v>2</v>
       </c>
-      <c r="AO426" s="5">
+      <c r="AO426" s="4">
         <v>45317</v>
       </c>
     </row>
     <row r="427" spans="1:98" ht="15" x14ac:dyDescent="0.2">
-      <c r="A427" s="6" t="s">
+      <c r="A427" s="5" t="s">
         <v>403</v>
       </c>
       <c r="B427" s="2" t="s">
@@ -26717,7 +26805,7 @@
       </c>
     </row>
     <row r="428" spans="1:98" ht="15" x14ac:dyDescent="0.2">
-      <c r="A428" s="6" t="s">
+      <c r="A428" s="5" t="s">
         <v>403</v>
       </c>
       <c r="B428" s="2" t="s">
@@ -26770,7 +26858,7 @@
       </c>
     </row>
     <row r="429" spans="1:98" ht="15" x14ac:dyDescent="0.2">
-      <c r="A429" s="6" t="s">
+      <c r="A429" s="5" t="s">
         <v>408</v>
       </c>
       <c r="B429" s="2" t="s">
@@ -26823,7 +26911,7 @@
       </c>
     </row>
     <row r="430" spans="1:98" ht="15" x14ac:dyDescent="0.2">
-      <c r="A430" s="6" t="s">
+      <c r="A430" s="5" t="s">
         <v>408</v>
       </c>
       <c r="B430" s="2" t="s">
@@ -26876,7 +26964,7 @@
       </c>
     </row>
     <row r="431" spans="1:98" ht="15" x14ac:dyDescent="0.2">
-      <c r="A431" s="6" t="s">
+      <c r="A431" s="5" t="s">
         <v>408</v>
       </c>
       <c r="B431" s="2" t="s">
@@ -26929,7 +27017,7 @@
       </c>
     </row>
     <row r="432" spans="1:98" ht="15" x14ac:dyDescent="0.2">
-      <c r="A432" s="6" t="s">
+      <c r="A432" s="5" t="s">
         <v>408</v>
       </c>
       <c r="B432" s="2" t="s">
@@ -26982,7 +27070,7 @@
       </c>
     </row>
     <row r="433" spans="1:98" ht="15" x14ac:dyDescent="0.2">
-      <c r="A433" s="6" t="s">
+      <c r="A433" s="5" t="s">
         <v>408</v>
       </c>
       <c r="B433" s="2" t="s">
@@ -27035,7 +27123,7 @@
       </c>
     </row>
     <row r="434" spans="1:98" ht="15" x14ac:dyDescent="0.2">
-      <c r="A434" s="6" t="s">
+      <c r="A434" s="5" t="s">
         <v>408</v>
       </c>
       <c r="B434" s="2" t="s">
@@ -27091,7 +27179,7 @@
       <c r="A435" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B435" s="4" t="s">
+      <c r="B435" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C435" s="1" t="s">
@@ -27150,7 +27238,7 @@
       <c r="A436" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B436" s="4" t="s">
+      <c r="B436" s="3" t="s">
         <v>409</v>
       </c>
       <c r="C436" s="1" t="s">
@@ -27203,6 +27291,31 @@
       </c>
       <c r="CT436" s="1" t="s">
         <v>411</v>
+      </c>
+    </row>
+    <row r="437" spans="1:98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A437" s="2" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="438" spans="1:98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A438" s="3" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="439" spans="1:98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A439" s="10" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="440" spans="1:98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A440" s="11" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="441" spans="1:98" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A441" s="6" t="s">
+        <v>412</v>
       </c>
     </row>
   </sheetData>
